--- a/data/trans_orig/P6708-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6708-Provincia-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>14034</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8151</v>
+        <v>7667</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>23173</v>
+        <v>22626</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1123819565207779</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06527269890036774</v>
+        <v>0.06139143161230924</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1855625222131809</v>
+        <v>0.1811828137425635</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>11</v>
@@ -764,19 +764,19 @@
         <v>11786</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6481</v>
+        <v>6204</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>20228</v>
+        <v>19432</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1365959854645443</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07511203777956924</v>
+        <v>0.07190682926606308</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2344333004977781</v>
+        <v>0.2252160485025786</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>24</v>
@@ -785,19 +785,19 @@
         <v>25820</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>17051</v>
+        <v>17225</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>35923</v>
+        <v>37084</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1222758690671044</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08074600632467127</v>
+        <v>0.08156968022137859</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1701183161362866</v>
+        <v>0.1756145598517108</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>7399</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3093</v>
+        <v>3148</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>13747</v>
+        <v>13854</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05925007649685281</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0247664371471835</v>
+        <v>0.02521066519046691</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1100809983173292</v>
+        <v>0.1109375534423319</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>4069</v>
+        <v>5539</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01139382346015775</v>
@@ -847,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04716303898594965</v>
+        <v>0.06419440828507812</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>8</v>
@@ -856,19 +856,19 @@
         <v>8382</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>3726</v>
+        <v>3696</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>15959</v>
+        <v>15505</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03969589229068318</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01764718904315321</v>
+        <v>0.01750279572097379</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0755757507960482</v>
+        <v>0.07342550492291026</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>20494</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>13002</v>
+        <v>13750</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>29639</v>
+        <v>29778</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1641104056427282</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1041159283223029</v>
+        <v>0.1101022863571757</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2373349250834141</v>
+        <v>0.2384485410222684</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>22</v>
@@ -906,19 +906,19 @@
         <v>25557</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>17337</v>
+        <v>16603</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>36161</v>
+        <v>34369</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2962038156657718</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2009300670468431</v>
+        <v>0.1924280460759192</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4190934386745171</v>
+        <v>0.3983290823458176</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>43</v>
@@ -927,19 +927,19 @@
         <v>46052</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>35581</v>
+        <v>34339</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>60971</v>
+        <v>60365</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2180841020378705</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1684996071807479</v>
+        <v>0.1626161600347525</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2887351325013287</v>
+        <v>0.2858682960830211</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>20788</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>13462</v>
+        <v>12834</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>32027</v>
+        <v>30287</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1664587899771899</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1077959025475252</v>
+        <v>0.1027681323279817</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.256456231784002</v>
+        <v>0.242521375479411</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>10</v>
@@ -977,19 +977,19 @@
         <v>11213</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5836</v>
+        <v>5839</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>19388</v>
+        <v>19627</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.129956231222554</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06763601410565338</v>
+        <v>0.06767635813254239</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2247028514638433</v>
+        <v>0.2274709936665774</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>29</v>
@@ -998,19 +998,19 @@
         <v>32001</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>21783</v>
+        <v>22115</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>44124</v>
+        <v>44928</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.151543753538015</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1031557474901409</v>
+        <v>0.1047290770309418</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2089570663199622</v>
+        <v>0.2127612327134498</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>62166</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>50522</v>
+        <v>51538</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>73700</v>
+        <v>73519</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4977987713624512</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4045550564082029</v>
+        <v>0.4126946696825038</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5901545310073411</v>
+        <v>0.5887057598357576</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>33</v>
@@ -1048,19 +1048,19 @@
         <v>36744</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>27128</v>
+        <v>26611</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>46163</v>
+        <v>46944</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4258501441869722</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3144045270570318</v>
+        <v>0.3084198779488994</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5350222319282918</v>
+        <v>0.5440748911634099</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>93</v>
@@ -1069,19 +1069,19 @@
         <v>98910</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>83736</v>
+        <v>83600</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>114984</v>
+        <v>113530</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4684003830663269</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3965423630469046</v>
+        <v>0.3959006435780861</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5445201516865398</v>
+        <v>0.5376373433547769</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>13556</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7687</v>
+        <v>8088</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>20880</v>
+        <v>21503</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07870532096279935</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04462881089241239</v>
+        <v>0.04695536204582267</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1212268596879157</v>
+        <v>0.1248438136020197</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>10</v>
@@ -1194,19 +1194,19 @@
         <v>10243</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4818</v>
+        <v>5052</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>17373</v>
+        <v>17648</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0834852312308938</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0392685650326028</v>
+        <v>0.04117783703526267</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1415999996628761</v>
+        <v>0.1438452985931411</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>24</v>
@@ -1215,19 +1215,19 @@
         <v>23799</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>14937</v>
+        <v>16261</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>34552</v>
+        <v>36081</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08069373536151152</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05064469325517867</v>
+        <v>0.05513575273901167</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1171526049090583</v>
+        <v>0.1223373803542392</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>15033</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>8810</v>
+        <v>8483</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>24345</v>
+        <v>24634</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.08727811011801792</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.05114733864169112</v>
+        <v>0.04925092336514385</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1413460513569921</v>
+        <v>0.1430186774827842</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>9</v>
@@ -1265,19 +1265,19 @@
         <v>10635</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>5053</v>
+        <v>5003</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>19237</v>
+        <v>18993</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.08668403701847718</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0411844013168344</v>
+        <v>0.04077720181402303</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1567944565067449</v>
+        <v>0.1548107708187739</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>23</v>
@@ -1286,19 +1286,19 @@
         <v>25668</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>16294</v>
+        <v>17214</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>37958</v>
+        <v>38525</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.08703097922250734</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.05524837874922807</v>
+        <v>0.0583659010918583</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1287014929580576</v>
+        <v>0.1306247413700445</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>19544</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>12388</v>
+        <v>12196</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>29828</v>
+        <v>30001</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1134721691488348</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.07192483543890009</v>
+        <v>0.07080663447236951</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.173176346101927</v>
+        <v>0.1741819511535783</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>16</v>
@@ -1336,19 +1336,19 @@
         <v>18130</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>10292</v>
+        <v>11020</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>28074</v>
+        <v>28704</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1477738986158433</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.08388537394960312</v>
+        <v>0.08981830376647601</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2288259088651295</v>
+        <v>0.2339629907730109</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>35</v>
@@ -1357,19 +1357,19 @@
         <v>37675</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>26812</v>
+        <v>26318</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>50757</v>
+        <v>50447</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1277414857149217</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.09090884376017049</v>
+        <v>0.08923576830523865</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1720991867002561</v>
+        <v>0.1710472856466216</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>16855</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>10646</v>
+        <v>10898</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>26710</v>
+        <v>26194</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09785811859782895</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06181042561892836</v>
+        <v>0.06327495915865033</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1550733723641308</v>
+        <v>0.1520802115659487</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>14</v>
@@ -1407,19 +1407,19 @@
         <v>14444</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>8313</v>
+        <v>8068</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>23643</v>
+        <v>22507</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1177268484285673</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0677579409724616</v>
+        <v>0.06576090305336273</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.192709947217674</v>
+        <v>0.1834531056333621</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>31</v>
@@ -1428,19 +1428,19 @@
         <v>31299</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>21763</v>
+        <v>21851</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>43266</v>
+        <v>43374</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1061233926853511</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07379048077224257</v>
+        <v>0.0740898956152892</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1467011058469018</v>
+        <v>0.147065903016078</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>107251</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>93006</v>
+        <v>91809</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>118336</v>
+        <v>119094</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.622686281172519</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5399788162044552</v>
+        <v>0.5330310572472741</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6870440284908778</v>
+        <v>0.6914400286842947</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>62</v>
@@ -1478,19 +1478,19 @@
         <v>69237</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>57206</v>
+        <v>57755</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>80748</v>
+        <v>80732</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5643299847062184</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4662723478942625</v>
+        <v>0.4707451396273807</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6581557646288264</v>
+        <v>0.6580286189653122</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>159</v>
@@ -1499,19 +1499,19 @@
         <v>176488</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>160252</v>
+        <v>159797</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>194866</v>
+        <v>193979</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5984104070157084</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.543359562605547</v>
+        <v>0.5418171414268915</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6607227564296412</v>
+        <v>0.6577154555711477</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>7726</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3734</v>
+        <v>3893</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14304</v>
+        <v>14593</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05395061358250616</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02607342579120776</v>
+        <v>0.02718529180111251</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09988953450309768</v>
+        <v>0.1019047316549171</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -1624,19 +1624,19 @@
         <v>5894</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1984</v>
+        <v>2741</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>11984</v>
+        <v>11725</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07155980659099123</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02408898877738431</v>
+        <v>0.03328026627658962</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1454916789280909</v>
+        <v>0.1423508980416843</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>14</v>
@@ -1645,19 +1645,19 @@
         <v>13620</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>7512</v>
+        <v>7755</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>21306</v>
+        <v>21724</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06038065352988586</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03330107121713289</v>
+        <v>0.03437999319078756</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09445585770978035</v>
+        <v>0.09630917057636661</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>8480</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3784</v>
+        <v>3845</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>16767</v>
+        <v>17165</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.05921834411850722</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02642488302287828</v>
+        <v>0.02684827439122479</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1170894296321995</v>
+        <v>0.1198630662186173</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>6</v>
@@ -1695,19 +1695,19 @@
         <v>6074</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2074</v>
+        <v>2880</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>12184</v>
+        <v>12204</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.07374719208191992</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02517808372404955</v>
+        <v>0.0349638297957296</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1479294189722938</v>
+        <v>0.1481644675256194</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>14</v>
@@ -1716,19 +1716,19 @@
         <v>14554</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>7807</v>
+        <v>8452</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>24215</v>
+        <v>23460</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.06452358852971529</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03461001132265662</v>
+        <v>0.03747102432523731</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1073504805312924</v>
+        <v>0.1040052545738411</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>30309</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>20904</v>
+        <v>21690</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>39635</v>
+        <v>41117</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2116529564325458</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1459789926052459</v>
+        <v>0.1514667973891724</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2767822386865752</v>
+        <v>0.2871255729466451</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>18</v>
@@ -1766,19 +1766,19 @@
         <v>19110</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>12642</v>
+        <v>12104</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>28649</v>
+        <v>28520</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2320178258623962</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.15348801712776</v>
+        <v>0.1469486714835193</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3478226170220264</v>
+        <v>0.3462535419071054</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>49</v>
@@ -1787,19 +1787,19 @@
         <v>49419</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>38905</v>
+        <v>37661</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>63471</v>
+        <v>63125</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2190892383731215</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1724773875107183</v>
+        <v>0.1669596542829448</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2813841921477265</v>
+        <v>0.2798494624101872</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>42922</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>32555</v>
+        <v>32284</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>54118</v>
+        <v>54287</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2997301545975893</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.227335731144554</v>
+        <v>0.2254460174002546</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3779176685877145</v>
+        <v>0.3790970874958356</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>19</v>
@@ -1837,19 +1837,19 @@
         <v>20473</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>13133</v>
+        <v>13062</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>28732</v>
+        <v>29304</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.248556679028253</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1594416747767946</v>
+        <v>0.158582511447924</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3488332075973389</v>
+        <v>0.3557805035905192</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>63</v>
@@ -1858,19 +1858,19 @@
         <v>63394</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>49619</v>
+        <v>51027</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>77071</v>
+        <v>77072</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.281044034682921</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2199751708663479</v>
+        <v>0.2262161224332274</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3416777577950115</v>
+        <v>0.3416802895276866</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>53765</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>42938</v>
+        <v>42860</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>65053</v>
+        <v>65980</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3754479312688515</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2998421660436638</v>
+        <v>0.2992986475709107</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4542766319659844</v>
+        <v>0.4607476184309607</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>29</v>
@@ -1908,19 +1908,19 @@
         <v>30815</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>22389</v>
+        <v>21467</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>40506</v>
+        <v>40331</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3741184964364397</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2718220572408927</v>
+        <v>0.2606234122042883</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4917845547520014</v>
+        <v>0.4896593322146607</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>83</v>
@@ -1929,19 +1929,19 @@
         <v>84579</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>70105</v>
+        <v>69759</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>98977</v>
+        <v>98394</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3749624848843564</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3107933074431377</v>
+        <v>0.3092591265591835</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4387913824833752</v>
+        <v>0.4362087046386686</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>11225</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5922</v>
+        <v>5177</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>20817</v>
+        <v>20880</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.07866731714494984</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04150551821326418</v>
+        <v>0.0362839286477289</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1458874824926662</v>
+        <v>0.1463294627141638</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>8</v>
@@ -2054,19 +2054,19 @@
         <v>8487</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3968</v>
+        <v>3997</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>15891</v>
+        <v>16453</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08283901687428603</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03873594282146234</v>
+        <v>0.03901393282198358</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1551166220152928</v>
+        <v>0.160599627148977</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>17</v>
@@ -2075,19 +2075,19 @@
         <v>19712</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>12193</v>
+        <v>11847</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>30162</v>
+        <v>30935</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08041075290263557</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04974134606358568</v>
+        <v>0.04832633372409013</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1230409940814267</v>
+        <v>0.1261962626075624</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>7968</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3875</v>
+        <v>3848</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>17460</v>
+        <v>16562</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.05584325052223483</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.02715690685998846</v>
+        <v>0.02696849802504307</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1223610506687434</v>
+        <v>0.1160719867177682</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>9</v>
@@ -2125,19 +2125,19 @@
         <v>9126</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>4163</v>
+        <v>4642</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>17414</v>
+        <v>16786</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.0890779730049617</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.04063267461816546</v>
+        <v>0.04530881002042366</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1699788992336893</v>
+        <v>0.163845216709734</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>16</v>
@@ -2146,19 +2146,19 @@
         <v>17094</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>10097</v>
+        <v>10060</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>26433</v>
+        <v>27226</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.06973269782969183</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.04118989036296566</v>
+        <v>0.04103736948663082</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.107830238299818</v>
+        <v>0.1110637807585244</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>34421</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>24848</v>
+        <v>24867</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>45431</v>
+        <v>45705</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.241228927306511</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1741413809942235</v>
+        <v>0.174271302010474</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3183906363046855</v>
+        <v>0.3203150288965823</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>27</v>
@@ -2196,19 +2196,19 @@
         <v>29145</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>20960</v>
+        <v>19390</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>39360</v>
+        <v>38221</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2844886689698096</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2045961310010757</v>
+        <v>0.1892682492984218</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3841984409984837</v>
+        <v>0.3730728633216956</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>60</v>
@@ -2217,19 +2217,19 @@
         <v>63566</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>50548</v>
+        <v>50703</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>77635</v>
+        <v>78879</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2593080282431555</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2062036133104604</v>
+        <v>0.2068361287684259</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3166987880451027</v>
+        <v>0.3217750010940236</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>34669</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>24384</v>
+        <v>24610</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>45187</v>
+        <v>46479</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2429663035469307</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1708899506358689</v>
+        <v>0.1724711387978048</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3166787454954224</v>
+        <v>0.3257386720142981</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>27</v>
@@ -2267,19 +2267,19 @@
         <v>28784</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>20480</v>
+        <v>20213</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>39543</v>
+        <v>38144</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2809576370401339</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.199905410225558</v>
+        <v>0.1973018184745248</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3859817716447883</v>
+        <v>0.3723291504482674</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>59</v>
@@ -2288,19 +2288,19 @@
         <v>63452</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>51214</v>
+        <v>50345</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>79932</v>
+        <v>77678</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2588436325954318</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2089214877634671</v>
+        <v>0.2053767724771081</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.326072750575108</v>
+        <v>0.3168747786238839</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>54406</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>41991</v>
+        <v>42518</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>67751</v>
+        <v>66700</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3812942014793736</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2942858470817489</v>
+        <v>0.2979735547756988</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4748160207282013</v>
+        <v>0.467450063141939</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>25</v>
@@ -2338,19 +2338,19 @@
         <v>26907</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>19083</v>
+        <v>19366</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>37274</v>
+        <v>38057</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2626367041108087</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1862692456215216</v>
+        <v>0.1890366284389413</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.363833337893214</v>
+        <v>0.3714720180784541</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>75</v>
@@ -2359,19 +2359,19 @@
         <v>81313</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>66677</v>
+        <v>66141</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>96973</v>
+        <v>97460</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3317048884290852</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2720009333679518</v>
+        <v>0.2698123472802647</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3955868430253142</v>
+        <v>0.3975721688495437</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>11399</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>5873</v>
+        <v>5809</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>20991</v>
+        <v>20202</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1384844937744613</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.07134961128947646</v>
+        <v>0.07056943315214162</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2550054102456555</v>
+        <v>0.2454253536146116</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>7</v>
@@ -2484,19 +2484,19 @@
         <v>6758</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2881</v>
+        <v>2851</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>12500</v>
+        <v>12790</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1234512729278178</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.05262906354927913</v>
+        <v>0.05207760160131321</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2283454822220017</v>
+        <v>0.2336424956047407</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>16</v>
@@ -2505,19 +2505,19 @@
         <v>18157</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>10457</v>
+        <v>10852</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>28094</v>
+        <v>29065</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1324799429657657</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.07629992654744101</v>
+        <v>0.0791819669202552</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2049786231351926</v>
+        <v>0.212066384442062</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>12599</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>7142</v>
+        <v>7010</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>20868</v>
+        <v>20627</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.153061984174766</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.08676719025386447</v>
+        <v>0.08516014148238799</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2535177110524379</v>
+        <v>0.2505841967769371</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>13</v>
@@ -2555,19 +2555,19 @@
         <v>13590</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>8075</v>
+        <v>7872</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>20717</v>
+        <v>21605</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2482594423264457</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.147504111105897</v>
+        <v>0.1437974215742216</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3784484048645467</v>
+        <v>0.394666977104074</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>25</v>
@@ -2576,19 +2576,19 @@
         <v>26190</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>17190</v>
+        <v>17542</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>37021</v>
+        <v>35686</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.191085637266915</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1254218012233929</v>
+        <v>0.1279913790977691</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2701128000461865</v>
+        <v>0.2603726150882025</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>21582</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>14422</v>
+        <v>14170</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>30541</v>
+        <v>29641</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2621877571363174</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1752112303320977</v>
+        <v>0.1721513893036017</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3710287717016192</v>
+        <v>0.360096690764171</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>15</v>
@@ -2626,19 +2626,19 @@
         <v>15702</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>10068</v>
+        <v>9739</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>23206</v>
+        <v>23687</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2868318980260413</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1839120380334302</v>
+        <v>0.1779109858336868</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4239131060656365</v>
+        <v>0.4326991019629527</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>36</v>
@@ -2647,19 +2647,19 @@
         <v>37284</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>27707</v>
+        <v>27480</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>49066</v>
+        <v>49134</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2720310899535852</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2021575965015708</v>
+        <v>0.2005033017892709</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3579978372472736</v>
+        <v>0.3584907828462073</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>15064</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>8473</v>
+        <v>8622</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>24779</v>
+        <v>24198</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1830058651607195</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.102929576942402</v>
+        <v>0.1047478214953164</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3010318073453225</v>
+        <v>0.2939674403390621</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>4</v>
@@ -2697,19 +2697,19 @@
         <v>3940</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>934</v>
+        <v>948</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>9731</v>
+        <v>9494</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.07197151977983895</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.01706062502862647</v>
+        <v>0.01731697016814983</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1777661810218758</v>
+        <v>0.1734358295938183</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>17</v>
@@ -2718,19 +2718,19 @@
         <v>19004</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>11135</v>
+        <v>11090</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>28688</v>
+        <v>28146</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1386566618096218</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.08124264818880221</v>
+        <v>0.08091382757995917</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2093117647320829</v>
+        <v>0.2053609147848893</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>21670</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>14438</v>
+        <v>14045</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>31374</v>
+        <v>31603</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2632598997537358</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1753980233156307</v>
+        <v>0.1706302888385625</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3811531329650053</v>
+        <v>0.3839270737327525</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>14</v>
@@ -2768,19 +2768,19 @@
         <v>14752</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>7902</v>
+        <v>9266</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>21132</v>
+        <v>22384</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2694858669398563</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1443468112534685</v>
+        <v>0.1692578789467785</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3860281589553436</v>
+        <v>0.408885930928544</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>34</v>
@@ -2789,19 +2789,19 @@
         <v>36422</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>25986</v>
+        <v>26550</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>47764</v>
+        <v>47730</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2657466680041124</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1895973950052467</v>
+        <v>0.1937120236086434</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3484952241895029</v>
+        <v>0.3482524144874566</v>
       </c>
     </row>
     <row r="33">
@@ -2893,19 +2893,19 @@
         <v>9753</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>4851</v>
+        <v>4793</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>19177</v>
+        <v>18775</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.08313697242874404</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.0413527684107367</v>
+        <v>0.04086138230422122</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1634802050004646</v>
+        <v>0.1600478784088934</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>6</v>
@@ -2914,19 +2914,19 @@
         <v>6045</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>11425</v>
+        <v>11304</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1112799070333928</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.03771377066829436</v>
+        <v>0.03765625060222674</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2103392409438394</v>
+        <v>0.2080998197252748</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>14</v>
@@ -2935,19 +2935,19 @@
         <v>15797</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>9190</v>
+        <v>8964</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>26830</v>
+        <v>25627</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.09204412543871208</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.0535487571881146</v>
+        <v>0.05222863388539384</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1563284379444057</v>
+        <v>0.1493184270569496</v>
       </c>
     </row>
     <row r="35">
@@ -2964,19 +2964,19 @@
         <v>7758</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>2896</v>
+        <v>3215</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>15630</v>
+        <v>16701</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.0661312789660862</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.02468442164623755</v>
+        <v>0.02740346644128334</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.133237922544888</v>
+        <v>0.1423721631741872</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>3</v>
@@ -2985,19 +2985,19 @@
         <v>2858</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>905</v>
+        <v>0</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>8069</v>
+        <v>7394</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.05261672523055114</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.01666980016174222</v>
+        <v>0</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1485563329274498</v>
+        <v>0.1361180206368179</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>10</v>
@@ -3006,19 +3006,19 @@
         <v>10616</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>5561</v>
+        <v>5649</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>20120</v>
+        <v>20219</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.06185396390726635</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.03240268696473871</v>
+        <v>0.03291198444838978</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1172304338332489</v>
+        <v>0.1178054358210651</v>
       </c>
     </row>
     <row r="36">
@@ -3035,19 +3035,19 @@
         <v>20895</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>13324</v>
+        <v>13441</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>31433</v>
+        <v>31184</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1781203085339499</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1135808560916993</v>
+        <v>0.1145822738396375</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.267958643867461</v>
+        <v>0.265831527358681</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>5</v>
@@ -3056,19 +3056,19 @@
         <v>4898</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>1868</v>
+        <v>1924</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>9880</v>
+        <v>10410</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.09016565240324986</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.03439709142414161</v>
+        <v>0.03542395486512529</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1818880783686172</v>
+        <v>0.1916368825837267</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>24</v>
@@ -3077,19 +3077,19 @@
         <v>25793</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>17000</v>
+        <v>16424</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>37358</v>
+        <v>37287</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.150282927994187</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.09905055517453998</v>
+        <v>0.0956940361245783</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2176700278581135</v>
+        <v>0.2172581617246349</v>
       </c>
     </row>
     <row r="37">
@@ -3106,19 +3106,19 @@
         <v>22256</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>14666</v>
+        <v>13500</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>33971</v>
+        <v>31518</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1897215299871255</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1250215996154068</v>
+        <v>0.1150819376585066</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2895871805511349</v>
+        <v>0.2686754582156546</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>14</v>
@@ -3127,19 +3127,19 @@
         <v>14036</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>8104</v>
+        <v>7858</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>21611</v>
+        <v>20824</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2584027810967996</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1491930279190741</v>
+        <v>0.1446611458096721</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3978504679310282</v>
+        <v>0.3833593993280409</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>34</v>
@@ -3148,19 +3148,19 @@
         <v>36292</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>25744</v>
+        <v>25434</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>48648</v>
+        <v>48297</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2114589365917961</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1500026182883478</v>
+        <v>0.1481906096527382</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.283452238848249</v>
+        <v>0.2814082520668802</v>
       </c>
     </row>
     <row r="38">
@@ -3177,19 +3177,19 @@
         <v>56646</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>44690</v>
+        <v>45673</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>66968</v>
+        <v>67912</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.4828899100840944</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.3809652518962049</v>
+        <v>0.3893452556136413</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.5708765431006562</v>
+        <v>0.5789221382405545</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>23</v>
@@ -3198,19 +3198,19 @@
         <v>26482</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>18258</v>
+        <v>19112</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>33649</v>
+        <v>34396</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.4875349342360066</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.3361212717606644</v>
+        <v>0.3518488104054164</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.619471019363256</v>
+        <v>0.6332136125480825</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>77</v>
@@ -3219,19 +3219,19 @@
         <v>83129</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>69102</v>
+        <v>69923</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>96738</v>
+        <v>99232</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.4843600460680385</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.4026296596629714</v>
+        <v>0.4074138931030968</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.5636499451900715</v>
+        <v>0.5781859076247077</v>
       </c>
     </row>
     <row r="39">
@@ -3323,19 +3323,19 @@
         <v>23139</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>15062</v>
+        <v>14544</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>33830</v>
+        <v>34207</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.08539758533090394</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.05558935977356985</v>
+        <v>0.05367849414934047</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1248547337560834</v>
+        <v>0.1262480277028086</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>22</v>
@@ -3344,19 +3344,19 @@
         <v>22866</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>14889</v>
+        <v>15015</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>33963</v>
+        <v>33528</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.1261754938551534</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.08215873881885401</v>
+        <v>0.08285177845948523</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.187407821935778</v>
+        <v>0.185005927499818</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>43</v>
@@ -3365,19 +3365,19 @@
         <v>46005</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>34074</v>
+        <v>34633</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>60887</v>
+        <v>62102</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.1017405345722869</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.07535477391125162</v>
+        <v>0.07659225469424578</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1346535127463132</v>
+        <v>0.1373395710429689</v>
       </c>
     </row>
     <row r="41">
@@ -3394,19 +3394,19 @@
         <v>24480</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>15830</v>
+        <v>16167</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>35183</v>
+        <v>35546</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.09034803017304779</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.0584244077447203</v>
+        <v>0.05966564627027279</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1298474777796546</v>
+        <v>0.1311877509149416</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>16</v>
@@ -3415,19 +3415,19 @@
         <v>17098</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>10119</v>
+        <v>9884</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>26615</v>
+        <v>26205</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.09435006464369143</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.0558349636308744</v>
+        <v>0.05454239076560109</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1468646692577608</v>
+        <v>0.1445991904919252</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>39</v>
@@ -3436,19 +3436,19 @@
         <v>41579</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>29799</v>
+        <v>28739</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>56358</v>
+        <v>55525</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.09195196349339205</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.06590139024856058</v>
+        <v>0.06355704184241492</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1246358155979033</v>
+        <v>0.1227950345767083</v>
       </c>
     </row>
     <row r="42">
@@ -3465,19 +3465,19 @@
         <v>61016</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>48194</v>
+        <v>47849</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>75838</v>
+        <v>78168</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.2251898498646646</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1778679340751819</v>
+        <v>0.1765963744892951</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2798937934823575</v>
+        <v>0.2884920660721356</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>33</v>
@@ -3486,19 +3486,19 @@
         <v>36322</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>25533</v>
+        <v>25983</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>48534</v>
+        <v>48553</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2004237965154733</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.140891592535785</v>
+        <v>0.1433756861955255</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2678103247989126</v>
+        <v>0.2679160705068711</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>92</v>
@@ -3507,19 +3507,19 @@
         <v>97338</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>81543</v>
+        <v>80806</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>116039</v>
+        <v>115558</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.2152641237192317</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1803338298848352</v>
+        <v>0.1787032459826006</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2566229421875185</v>
+        <v>0.255558710458034</v>
       </c>
     </row>
     <row r="43">
@@ -3536,19 +3536,19 @@
         <v>63055</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>48952</v>
+        <v>48964</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>79762</v>
+        <v>79553</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.2327149357999353</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1806636271780965</v>
+        <v>0.1807080724444829</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.2943756844997647</v>
+        <v>0.2936017425989577</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>35</v>
@@ -3557,19 +3557,19 @@
         <v>36570</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>25629</v>
+        <v>27035</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>47873</v>
+        <v>49668</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.201793556917912</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.141424027915656</v>
+        <v>0.1491791149181186</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.2641648085889143</v>
+        <v>0.274069780449136</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>94</v>
@@ -3578,19 +3578,19 @@
         <v>99625</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>83047</v>
+        <v>81374</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>119862</v>
+        <v>118724</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.2203222814478377</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1836593736801429</v>
+        <v>0.17995948486323</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.2650762437326736</v>
+        <v>0.2625601399892017</v>
       </c>
     </row>
     <row r="44">
@@ -3607,19 +3607,19 @@
         <v>99264</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>83101</v>
+        <v>82487</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>118340</v>
+        <v>116363</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.3663495988314483</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.3066971643793567</v>
+        <v>0.304430133667823</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.4367543287857344</v>
+        <v>0.4294573161637015</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>64</v>
@@ -3628,19 +3628,19 @@
         <v>68368</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>54622</v>
+        <v>56804</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>82466</v>
+        <v>82537</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.3772570880677699</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.3014080686464667</v>
+        <v>0.3134437684423913</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.4550515779572569</v>
+        <v>0.455441275231248</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>154</v>
@@ -3649,19 +3649,19 @@
         <v>167632</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>147249</v>
+        <v>149704</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>190879</v>
+        <v>190755</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.3707210967672516</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.3256440822035337</v>
+        <v>0.3310738031935875</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.42213157876879</v>
+        <v>0.4218581689081684</v>
       </c>
     </row>
     <row r="45">
@@ -3753,19 +3753,19 @@
         <v>15368</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>9001</v>
+        <v>7851</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>27784</v>
+        <v>25604</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.0428973426030182</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.02512298418924678</v>
+        <v>0.02191466441901996</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.07755204299613976</v>
+        <v>0.07146808704778039</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>15</v>
@@ -3774,19 +3774,19 @@
         <v>17791</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>10271</v>
+        <v>10656</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>30032</v>
+        <v>30190</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.06879634301594971</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.03971479571221599</v>
+        <v>0.04120595360227344</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.1161309569324316</v>
+        <v>0.1167386012211521</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>28</v>
@@ -3795,19 +3795,19 @@
         <v>33160</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>22814</v>
+        <v>22596</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>48149</v>
+        <v>47881</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.05375495321648657</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.03698403356029557</v>
+        <v>0.03663043328135414</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.07805353969113719</v>
+        <v>0.07761974847467028</v>
       </c>
     </row>
     <row r="47">
@@ -3824,19 +3824,19 @@
         <v>22737</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>13141</v>
+        <v>13670</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>35567</v>
+        <v>36485</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.06346488350251103</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.03668111376959091</v>
+        <v>0.0381564406914215</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.09927805289107011</v>
+        <v>0.1018402203400259</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>15</v>
@@ -3845,19 +3845,19 @@
         <v>16695</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>9385</v>
+        <v>10187</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>26047</v>
+        <v>27106</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.06455827388895129</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.03629178624202103</v>
+        <v>0.03939016562000662</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.1007209499007564</v>
+        <v>0.1048166840105754</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>33</v>
@@ -3866,19 +3866,19 @@
         <v>39432</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>27590</v>
+        <v>27148</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>54735</v>
+        <v>55169</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.06392326440042979</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.04472603680924368</v>
+        <v>0.0440093124499181</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.08873116410647426</v>
+        <v>0.08943466019553624</v>
       </c>
     </row>
     <row r="48">
@@ -3895,19 +3895,19 @@
         <v>78634</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>63008</v>
+        <v>63917</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>94817</v>
+        <v>96059</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.2194889069407261</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.1758723042921239</v>
+        <v>0.1784117002244501</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.2646613960384984</v>
+        <v>0.2681278721604055</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>47</v>
@@ -3916,19 +3916,19 @@
         <v>52705</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>39673</v>
+        <v>39862</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>68041</v>
+        <v>68379</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.2038020920803695</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.1534110129014685</v>
+        <v>0.1541396958091955</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.2631065513191945</v>
+        <v>0.2644129982041218</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>123</v>
@@ -3937,19 +3937,19 @@
         <v>131339</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>111467</v>
+        <v>111328</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>153795</v>
+        <v>152407</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.2129125401001635</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.1806989684898533</v>
+        <v>0.1804728592060487</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.249316062275178</v>
+        <v>0.2470673457940403</v>
       </c>
     </row>
     <row r="49">
@@ -3966,19 +3966,19 @@
         <v>132007</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>113345</v>
+        <v>114481</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>150394</v>
+        <v>150925</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.368468928136062</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.3163775336594294</v>
+        <v>0.31954937110576</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.4197925283526742</v>
+        <v>0.4212740643320645</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>89</v>
@@ -3987,19 +3987,19 @@
         <v>96356</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>79873</v>
+        <v>80058</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>112831</v>
+        <v>112244</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.3725963248241304</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.3088578447178009</v>
+        <v>0.3095734080145874</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.4363021343688953</v>
+        <v>0.4340298100790482</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>215</v>
@@ -4008,19 +4008,19 @@
         <v>228363</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>204879</v>
+        <v>205345</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>253983</v>
+        <v>255272</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.3701992522942094</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.332129544716193</v>
+        <v>0.3328842314969039</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.4117312982099247</v>
+        <v>0.4138207132939711</v>
       </c>
     </row>
     <row r="50">
@@ -4037,19 +4037,19 @@
         <v>109512</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>90414</v>
+        <v>92387</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>127435</v>
+        <v>129043</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.3056799388176826</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.2523706486340575</v>
+        <v>0.2578773606191316</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.3557072873941994</v>
+        <v>0.3601946001799519</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>68</v>
@@ -4058,19 +4058,19 @@
         <v>75060</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>58908</v>
+        <v>59822</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>90544</v>
+        <v>91325</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.2902469661905991</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.2277896203011349</v>
+        <v>0.231323285001484</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.3501197378448517</v>
+        <v>0.3531401631613501</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>168</v>
@@ -4079,19 +4079,19 @@
         <v>184572</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>162389</v>
+        <v>162169</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>208339</v>
+        <v>208436</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.2992099899887107</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.2632490007976483</v>
+        <v>0.2628921154562752</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.3377380769243082</v>
+        <v>0.3378943089817819</v>
       </c>
     </row>
     <row r="51">
@@ -4183,19 +4183,19 @@
         <v>106200</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>87397</v>
+        <v>86607</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>129566</v>
+        <v>129461</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.07522095361761556</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.0619028901438648</v>
+        <v>0.06134331316952366</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.09177055125406466</v>
+        <v>0.09169609662818674</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>85</v>
@@ -4204,19 +4204,19 @@
         <v>89869</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>73826</v>
+        <v>72350</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>109638</v>
+        <v>109644</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.09533394981227525</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.0783149449410992</v>
+        <v>0.07674906949030405</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.1163045972125653</v>
+        <v>0.1163107684416739</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>180</v>
@@ -4225,19 +4225,19 @@
         <v>196070</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>170349</v>
+        <v>171463</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>226347</v>
+        <v>226281</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.08327357661506653</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.07234948719144293</v>
+        <v>0.07282258876421793</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.09613262471602632</v>
+        <v>0.09610484384667578</v>
       </c>
     </row>
     <row r="53">
@@ -4254,19 +4254,19 @@
         <v>106454</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>85869</v>
+        <v>88527</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>128662</v>
+        <v>129913</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.07540071120087653</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.06082050452433265</v>
+        <v>0.062702982633789</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.09113046641747685</v>
+        <v>0.09201612864960805</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>72</v>
@@ -4275,19 +4275,19 @@
         <v>77061</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>61577</v>
+        <v>60263</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>97540</v>
+        <v>95711</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.08174643217928525</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.06532173201304209</v>
+        <v>0.06392710997800555</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.1034711640844759</v>
+        <v>0.1015307020790547</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>168</v>
@@ -4296,19 +4296,19 @@
         <v>183515</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>160108</v>
+        <v>158224</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>211738</v>
+        <v>211797</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.07794134205426022</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.06800008971131921</v>
+        <v>0.06719980927360129</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.08992807625678156</v>
+        <v>0.08995306485937722</v>
       </c>
     </row>
     <row r="54">
@@ -4325,19 +4325,19 @@
         <v>286895</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>259848</v>
+        <v>256352</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>316934</v>
+        <v>316722</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.2032055423802847</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.184048870366657</v>
+        <v>0.1815722912455053</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.2244824102571963</v>
+        <v>0.2243317893349245</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>183</v>
@@ -4346,19 +4346,19 @@
         <v>201569</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>176009</v>
+        <v>175778</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>228145</v>
+        <v>227374</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.2138259129828706</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.1867118145863859</v>
+        <v>0.1864663687120892</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.2420173455731182</v>
+        <v>0.241199909289925</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>462</v>
@@ -4367,19 +4367,19 @@
         <v>488464</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>448524</v>
+        <v>448400</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>530305</v>
+        <v>530749</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.2074576110292383</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.1904944677211192</v>
+        <v>0.1904420082448295</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.2252281666701296</v>
+        <v>0.2254167168874897</v>
       </c>
     </row>
     <row r="55">
@@ -4396,19 +4396,19 @@
         <v>347615</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>315201</v>
+        <v>316675</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>383844</v>
+        <v>382787</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.2462130434368883</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.2232548428508132</v>
+        <v>0.2242985261588526</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.2718741615156556</v>
+        <v>0.2711257073274976</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>212</v>
@@ -4417,19 +4417,19 @@
         <v>225815</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>200424</v>
+        <v>200741</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>252483</v>
+        <v>255425</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.2395462771448153</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.212611158598557</v>
+        <v>0.2129477199828333</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.2678360441654634</v>
+        <v>0.2709569704420894</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>542</v>
@@ -4438,19 +4438,19 @@
         <v>573430</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>530805</v>
+        <v>530736</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>615695</v>
+        <v>618159</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.2435438759472414</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.2254402614190791</v>
+        <v>0.2254113459184932</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.2614945516840952</v>
+        <v>0.2625410071000623</v>
       </c>
     </row>
     <row r="56">
@@ -4467,19 +4467,19 @@
         <v>564681</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>532222</v>
+        <v>529047</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>607404</v>
+        <v>602755</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.399959749364335</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.3769689428107616</v>
+        <v>0.3747203558403966</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.4302202542700357</v>
+        <v>0.4269271323147212</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>318</v>
@@ -4488,19 +4488,19 @@
         <v>348365</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>320642</v>
+        <v>316269</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>380576</v>
+        <v>378832</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.3695474278807536</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.3401392641281529</v>
+        <v>0.3355005288077719</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.4037179503833256</v>
+        <v>0.4018674011908153</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>843</v>
@@ -4509,19 +4509,19 @@
         <v>913046</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>864428</v>
+        <v>868677</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>963244</v>
+        <v>960570</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.3877835943541936</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.3671351226360036</v>
+        <v>0.3689393572149648</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.4091036470984649</v>
+        <v>0.4079676634478853</v>
       </c>
     </row>
     <row r="57">
@@ -4857,19 +4857,19 @@
         <v>27394</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>18223</v>
+        <v>18684</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>38339</v>
+        <v>37885</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.205894192821451</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.136958983946004</v>
+        <v>0.1404299233235819</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2881502808383432</v>
+        <v>0.2847384820121428</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>21</v>
@@ -4878,19 +4878,19 @@
         <v>21996</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>14714</v>
+        <v>14984</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>31539</v>
+        <v>32237</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2198056632262995</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1470392591794111</v>
+        <v>0.1497322208798065</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3151659657458044</v>
+        <v>0.322145325226671</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>45</v>
@@ -4899,19 +4899,19 @@
         <v>49390</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>37072</v>
+        <v>37031</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>63474</v>
+        <v>62209</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.211865854461054</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1590273903701187</v>
+        <v>0.158847599431674</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2722807426370545</v>
+        <v>0.2668528555172827</v>
       </c>
     </row>
     <row r="5">
@@ -4928,19 +4928,19 @@
         <v>19947</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>11758</v>
+        <v>12543</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>29421</v>
+        <v>30468</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1499182874535055</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08837004941583075</v>
+        <v>0.09427328425546015</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2211230078744313</v>
+        <v>0.2289929958725024</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>18</v>
@@ -4949,19 +4949,19 @@
         <v>17421</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>11409</v>
+        <v>10287</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>25742</v>
+        <v>25483</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1740896011511375</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1140114632293785</v>
+        <v>0.1028010174275958</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2572411770261428</v>
+        <v>0.2546468182029911</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>36</v>
@@ -4970,19 +4970,19 @@
         <v>37368</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>27408</v>
+        <v>26376</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>51070</v>
+        <v>49776</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1602941070172413</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1175691023365896</v>
+        <v>0.1131455477304609</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.219070268438234</v>
+        <v>0.2135209931040391</v>
       </c>
     </row>
     <row r="6">
@@ -4999,19 +4999,19 @@
         <v>28694</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>19934</v>
+        <v>19488</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>40090</v>
+        <v>40305</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2156585222624437</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1498213984864207</v>
+        <v>0.1464703376844742</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3013135017919857</v>
+        <v>0.3029260414492964</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>14</v>
@@ -5020,19 +5020,19 @@
         <v>13774</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>8101</v>
+        <v>8160</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>20863</v>
+        <v>22783</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1376431514732947</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.08095649896281122</v>
+        <v>0.08154359067581968</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2084850321293562</v>
+        <v>0.2276717028689675</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>39</v>
@@ -5041,19 +5041,19 @@
         <v>42467</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>31120</v>
+        <v>31404</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>56951</v>
+        <v>56107</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1821695104266718</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1334944136586435</v>
+        <v>0.1347124189599483</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2442990750300147</v>
+        <v>0.2406799544369017</v>
       </c>
     </row>
     <row r="7">
@@ -5070,19 +5070,19 @@
         <v>17758</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>10664</v>
+        <v>10525</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>27481</v>
+        <v>27163</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1334676926263642</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08015281536569335</v>
+        <v>0.07910835447293892</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2065474083201046</v>
+        <v>0.2041583586537573</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>12</v>
@@ -5091,19 +5091,19 @@
         <v>11599</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>6273</v>
+        <v>6731</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>18674</v>
+        <v>19488</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1159093485490454</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06268130613660884</v>
+        <v>0.06726304007504083</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.186610837136251</v>
+        <v>0.1947469305211393</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>28</v>
@@ -5112,19 +5112,19 @@
         <v>29357</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>19525</v>
+        <v>21068</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>40482</v>
+        <v>41499</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1259305677409221</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08375415474915812</v>
+        <v>0.09037448307922041</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.173652600273759</v>
+        <v>0.1780172950980039</v>
       </c>
     </row>
     <row r="8">
@@ -5141,19 +5141,19 @@
         <v>39258</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>28566</v>
+        <v>28969</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>50437</v>
+        <v>51374</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2950613048362357</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2146966981917476</v>
+        <v>0.2177320673901106</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3790821158680285</v>
+        <v>0.3861232613574192</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>32</v>
@@ -5162,19 +5162,19 @@
         <v>35280</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>25646</v>
+        <v>25583</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>45098</v>
+        <v>45438</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3525522356002229</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2562773411097901</v>
+        <v>0.2556520678582168</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4506610514259176</v>
+        <v>0.4540654675753591</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>66</v>
@@ -5183,19 +5183,19 @@
         <v>74538</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>59609</v>
+        <v>60270</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>90007</v>
+        <v>89602</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3197399603541109</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2557028811948803</v>
+        <v>0.2585351552494728</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3860972312821966</v>
+        <v>0.3843613816178244</v>
       </c>
     </row>
     <row r="9">
@@ -5287,19 +5287,19 @@
         <v>19977</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>12852</v>
+        <v>12818</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>30806</v>
+        <v>30557</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1173069282233005</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07547052565037833</v>
+        <v>0.07526828457092824</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1808974906454444</v>
+        <v>0.1794333156501797</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>15</v>
@@ -5308,19 +5308,19 @@
         <v>15661</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>9661</v>
+        <v>9260</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>24361</v>
+        <v>23677</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1377679352314208</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08498087497947775</v>
+        <v>0.08145631629906978</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2142954337239487</v>
+        <v>0.2082782404001496</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>34</v>
@@ -5329,19 +5329,19 @@
         <v>35638</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>25070</v>
+        <v>24545</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>48299</v>
+        <v>48171</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1254977725458958</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08828193342861851</v>
+        <v>0.08643344843009841</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1700797839197507</v>
+        <v>0.1696314468950051</v>
       </c>
     </row>
     <row r="11">
@@ -5358,19 +5358,19 @@
         <v>17782</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>10084</v>
+        <v>10690</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>28152</v>
+        <v>27108</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1044191636319905</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.05921511149864298</v>
+        <v>0.06277181781032878</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1653091299032591</v>
+        <v>0.1591790797224614</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>16</v>
@@ -5379,19 +5379,19 @@
         <v>16732</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>10362</v>
+        <v>10066</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>25798</v>
+        <v>25567</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1471822714810035</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.09114832356876808</v>
+        <v>0.08854408213786721</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2269313604095665</v>
+        <v>0.2249027763490243</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>32</v>
@@ -5400,19 +5400,19 @@
         <v>34514</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>25230</v>
+        <v>24417</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>47725</v>
+        <v>48300</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1215378694221115</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.08884617144239558</v>
+        <v>0.08598251264446957</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.168061126450696</v>
+        <v>0.1700825199406916</v>
       </c>
     </row>
     <row r="12">
@@ -5429,19 +5429,19 @@
         <v>37615</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>26787</v>
+        <v>27410</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>49394</v>
+        <v>50114</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2208817358100401</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1572978180651212</v>
+        <v>0.1609520838590177</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2900460588059683</v>
+        <v>0.2942717818524918</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>19</v>
@@ -5450,19 +5450,19 @@
         <v>19365</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>12768</v>
+        <v>12149</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>29771</v>
+        <v>28570</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1703447424264591</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1123194804020256</v>
+        <v>0.1068737176913023</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2618882543041156</v>
+        <v>0.2513155410831594</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>53</v>
@@ -5471,19 +5471,19 @@
         <v>56980</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>44997</v>
+        <v>43949</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>72019</v>
+        <v>73220</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2006510284371011</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1584513971810791</v>
+        <v>0.1547624406938443</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2536096679858308</v>
+        <v>0.2578368471410123</v>
       </c>
     </row>
     <row r="13">
@@ -5500,19 +5500,19 @@
         <v>34022</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>23957</v>
+        <v>24748</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>44773</v>
+        <v>45464</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1997784554908411</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1406802109022441</v>
+        <v>0.1453223514185157</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.262910613181131</v>
+        <v>0.2669717602053853</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>10</v>
@@ -5521,19 +5521,19 @@
         <v>10302</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5132</v>
+        <v>5177</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>17422</v>
+        <v>17621</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09062122993378544</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04513991424650605</v>
+        <v>0.04553662743352888</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1532547118587356</v>
+        <v>0.1550010817312453</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>42</v>
@@ -5542,19 +5542,19 @@
         <v>44323</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>32249</v>
+        <v>33855</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>57940</v>
+        <v>58301</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1560812004696479</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1135622961273723</v>
+        <v>0.1192170960108676</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2040295480671502</v>
+        <v>0.2053023894919349</v>
       </c>
     </row>
     <row r="14">
@@ -5571,19 +5571,19 @@
         <v>60901</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>49088</v>
+        <v>48895</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>74027</v>
+        <v>74922</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3576137168438278</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2882502545714813</v>
+        <v>0.2871183627111652</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4346907033682393</v>
+        <v>0.4399496256422381</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>49</v>
@@ -5592,19 +5592,19 @@
         <v>51620</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>41246</v>
+        <v>41391</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>61931</v>
+        <v>62030</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4540838209273311</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3628214118118585</v>
+        <v>0.3640998074894391</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5447875068326118</v>
+        <v>0.545652758055324</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>105</v>
@@ -5613,19 +5613,19 @@
         <v>112521</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>96024</v>
+        <v>94887</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>128512</v>
+        <v>130677</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3962321291252439</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3381408596344495</v>
+        <v>0.3341352866368965</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4525429637771355</v>
+        <v>0.4601690651337992</v>
       </c>
     </row>
     <row r="15">
@@ -5717,19 +5717,19 @@
         <v>11231</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5666</v>
+        <v>5655</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>18428</v>
+        <v>19402</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08942361164622804</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04511320275171181</v>
+        <v>0.04502567543733208</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1467323435996821</v>
+        <v>0.1544902822557306</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>7</v>
@@ -5738,19 +5738,19 @@
         <v>6835</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2706</v>
+        <v>2754</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>13168</v>
+        <v>13001</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08104875593366395</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03208592265129132</v>
+        <v>0.03266094380884224</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1561481517684481</v>
+        <v>0.1541672065808991</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>18</v>
@@ -5759,19 +5759,19 @@
         <v>18066</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>11665</v>
+        <v>10832</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>27129</v>
+        <v>26905</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08605913021058977</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05556664072980422</v>
+        <v>0.05160118242617236</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1292352572349733</v>
+        <v>0.1281658778604767</v>
       </c>
     </row>
     <row r="17">
@@ -5788,19 +5788,19 @@
         <v>29479</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>20660</v>
+        <v>21087</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>39334</v>
+        <v>39696</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2347261772275814</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1645030304528333</v>
+        <v>0.1679063630869051</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3131924234311415</v>
+        <v>0.3160778553717515</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>18</v>
@@ -5809,19 +5809,19 @@
         <v>17104</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>10739</v>
+        <v>10256</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>24805</v>
+        <v>25204</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2028190204847427</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1273385398529874</v>
+        <v>0.1216156441689157</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2941268593277977</v>
+        <v>0.2988582377765409</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>49</v>
@@ -5830,19 +5830,19 @@
         <v>46583</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>36741</v>
+        <v>35578</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>58459</v>
+        <v>58097</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.221907922178216</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1750234056052594</v>
+        <v>0.1694830558862878</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2784798157368242</v>
+        <v>0.2767562274027608</v>
       </c>
     </row>
     <row r="18">
@@ -5859,19 +5859,19 @@
         <v>43406</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>33858</v>
+        <v>33722</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>54809</v>
+        <v>54841</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3456178964728215</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2695941358894446</v>
+        <v>0.2685109295781273</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4364132981926689</v>
+        <v>0.4366705548148301</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>32</v>
@@ -5880,19 +5880,19 @@
         <v>31992</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>22912</v>
+        <v>23623</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>41324</v>
+        <v>41061</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3793513263375279</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2716903533414054</v>
+        <v>0.2801178725505387</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4900040771802631</v>
+        <v>0.4868867859916113</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>79</v>
@@ -5901,19 +5901,19 @@
         <v>75398</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>63579</v>
+        <v>62799</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>89436</v>
+        <v>88881</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.359169831268539</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3028703697972395</v>
+        <v>0.2991519299298956</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4260453530538561</v>
+        <v>0.4234002648967084</v>
       </c>
     </row>
     <row r="19">
@@ -5930,19 +5930,19 @@
         <v>23007</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>14517</v>
+        <v>15718</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>32573</v>
+        <v>34247</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1831947683665607</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1155939452017883</v>
+        <v>0.1251555032975319</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2593591168567581</v>
+        <v>0.2726901707545243</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>18</v>
@@ -5951,19 +5951,19 @@
         <v>17365</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>11890</v>
+        <v>11134</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>26127</v>
+        <v>25747</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2059057664799703</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1409940444671498</v>
+        <v>0.1320262700337035</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3098039309620486</v>
+        <v>0.3053029518851655</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>40</v>
@@ -5972,19 +5972,19 @@
         <v>40372</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>29523</v>
+        <v>29777</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>52284</v>
+        <v>52339</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1923185949923436</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1406372637321637</v>
+        <v>0.1418479448128484</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2490651285367397</v>
+        <v>0.2493277798018671</v>
       </c>
     </row>
     <row r="20">
@@ -6001,19 +6001,19 @@
         <v>18466</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>12092</v>
+        <v>11766</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>27146</v>
+        <v>26954</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1470375462868084</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.09628115651934094</v>
+        <v>0.09368780939338657</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2161530767486029</v>
+        <v>0.214623364367021</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>11</v>
@@ -6022,19 +6022,19 @@
         <v>11037</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>6036</v>
+        <v>6188</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>18453</v>
+        <v>18274</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1308751307640951</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.07156976618364423</v>
+        <v>0.07337606298654507</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2188167144627857</v>
+        <v>0.2166907217186074</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>31</v>
@@ -6043,19 +6043,19 @@
         <v>29503</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>20362</v>
+        <v>21434</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>40092</v>
+        <v>40877</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1405445213503116</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.09699885899161026</v>
+        <v>0.1021061031733933</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.190986722076691</v>
+        <v>0.1947243063098917</v>
       </c>
     </row>
     <row r="21">
@@ -6147,19 +6147,19 @@
         <v>9361</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3979</v>
+        <v>4647</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>16882</v>
+        <v>16696</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0834434308507625</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03547294041396148</v>
+        <v>0.04142190123310815</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1504868850905046</v>
+        <v>0.1488335479122485</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>11</v>
@@ -6168,19 +6168,19 @@
         <v>12297</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>6495</v>
+        <v>6498</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>20326</v>
+        <v>20267</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.150221321509366</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07934578494929112</v>
+        <v>0.07937750491071754</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2482990831898636</v>
+        <v>0.2475889951705671</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>20</v>
@@ -6189,19 +6189,19 @@
         <v>21658</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>13690</v>
+        <v>13529</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>32100</v>
+        <v>32030</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1116148775093233</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07055520762912086</v>
+        <v>0.06972268960148009</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1654322119812791</v>
+        <v>0.1650697684116819</v>
       </c>
     </row>
     <row r="23">
@@ -6218,19 +6218,19 @@
         <v>9497</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>4692</v>
+        <v>4579</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>17014</v>
+        <v>16539</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.08466088435398873</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.04182578262433373</v>
+        <v>0.04081655638216625</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1516691469933571</v>
+        <v>0.1474352874557362</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>6</v>
@@ -6239,19 +6239,19 @@
         <v>6179</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2932</v>
+        <v>2138</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>12423</v>
+        <v>12751</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.07548680515636334</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.03581986085466308</v>
+        <v>0.02611763556889065</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1517551906505553</v>
+        <v>0.1557646350631849</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>15</v>
@@ -6260,19 +6260,19 @@
         <v>15677</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>8910</v>
+        <v>9471</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>24305</v>
+        <v>26118</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.0807906350812376</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.04592104325508323</v>
+        <v>0.04880901748022645</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1252598008851889</v>
+        <v>0.1346025390663331</v>
       </c>
     </row>
     <row r="24">
@@ -6289,19 +6289,19 @@
         <v>11134</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5543</v>
+        <v>5701</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>19826</v>
+        <v>20397</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.09925009797065668</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.04941474175235547</v>
+        <v>0.05082169211975063</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1767302790619122</v>
+        <v>0.1818203495048756</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>9</v>
@@ -6310,19 +6310,19 @@
         <v>9235</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>4315</v>
+        <v>4668</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>16496</v>
+        <v>16732</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1128133914961575</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.05271030644764325</v>
+        <v>0.05702866430910823</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2015211765501735</v>
+        <v>0.2043966862592768</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>19</v>
@@ -6331,19 +6331,19 @@
         <v>20369</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>12116</v>
+        <v>12092</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>30101</v>
+        <v>29916</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1049720157536171</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.06243964566759282</v>
+        <v>0.06231506526420683</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1551277135230425</v>
+        <v>0.154176570247428</v>
       </c>
     </row>
     <row r="25">
@@ -6360,19 +6360,19 @@
         <v>20074</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>12668</v>
+        <v>11792</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>28783</v>
+        <v>29623</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1789466552957316</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1129286183232287</v>
+        <v>0.1051147188580099</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.256577174701241</v>
+        <v>0.2640695054668847</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>18</v>
@@ -6381,19 +6381,19 @@
         <v>17764</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>11362</v>
+        <v>10938</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>25492</v>
+        <v>25215</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2170027915458256</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1388043101653743</v>
+        <v>0.133617447673728</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3114107295352101</v>
+        <v>0.308024129720479</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>35</v>
@@ -6402,19 +6402,19 @@
         <v>37838</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>27388</v>
+        <v>27627</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>50910</v>
+        <v>50651</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1950013165290648</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1411490552301403</v>
+        <v>0.14238083054728</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2623711993809599</v>
+        <v>0.2610336317097872</v>
       </c>
     </row>
     <row r="26">
@@ -6431,19 +6431,19 @@
         <v>62114</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>50431</v>
+        <v>51848</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>73429</v>
+        <v>73488</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5536989315288605</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4495549854188481</v>
+        <v>0.4621861345527575</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6545653850906743</v>
+        <v>0.6550928802846203</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>35</v>
@@ -6452,19 +6452,19 @@
         <v>36384</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>26833</v>
+        <v>27631</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>45551</v>
+        <v>46032</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4444756902922875</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3277912004248011</v>
+        <v>0.3375479455084876</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5564537081654813</v>
+        <v>0.5623289551084727</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>94</v>
@@ -6473,19 +6473,19 @@
         <v>98498</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>84124</v>
+        <v>84595</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>113706</v>
+        <v>113149</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5076211551267573</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4335421746516786</v>
+        <v>0.4359681944005443</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5859948145248386</v>
+        <v>0.5831237195603139</v>
       </c>
     </row>
     <row r="27">
@@ -6580,7 +6580,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>4865</v>
+        <v>5342</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01182432312172545</v>
@@ -6589,7 +6589,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.06011814539333802</v>
+        <v>0.06601079749340032</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>4</v>
@@ -6598,19 +6598,19 @@
         <v>4196</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1038</v>
+        <v>1029</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>10641</v>
+        <v>10268</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.07571225104140079</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01873789256496778</v>
+        <v>0.01856819672869216</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1920108822251317</v>
+        <v>0.1852811913670313</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>5</v>
@@ -6619,19 +6619,19 @@
         <v>5153</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1821</v>
+        <v>1866</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>11307</v>
+        <v>11625</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.03779139709258527</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01335544634825654</v>
+        <v>0.01368341061748184</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.08292717522229377</v>
+        <v>0.08526329867936064</v>
       </c>
     </row>
     <row r="29">
@@ -6648,19 +6648,19 @@
         <v>10795</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>5724</v>
+        <v>5687</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>17342</v>
+        <v>18188</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1333875786250133</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.07072739646657912</v>
+        <v>0.0702738036685035</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2142897225189544</v>
+        <v>0.2247347215200157</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>10</v>
@@ -6669,19 +6669,19 @@
         <v>9939</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>5323</v>
+        <v>4651</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>17084</v>
+        <v>15932</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1793409878728213</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.09605837674850309</v>
+        <v>0.08392802258557061</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3082668854850205</v>
+        <v>0.2874947783945513</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>21</v>
@@ -6690,19 +6690,19 @@
         <v>20734</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>13874</v>
+        <v>13338</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>31445</v>
+        <v>30711</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1520652164199235</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1017568174653834</v>
+        <v>0.09782010844885287</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2306260814889592</v>
+        <v>0.2252412531337879</v>
       </c>
     </row>
     <row r="30">
@@ -6719,19 +6719,19 @@
         <v>33428</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>24905</v>
+        <v>25183</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>41686</v>
+        <v>43630</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.4130484907186685</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3077377600880373</v>
+        <v>0.3111656661389897</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.5150818158002782</v>
+        <v>0.5391022998693616</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>24</v>
@@ -6740,19 +6740,19 @@
         <v>22222</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>15872</v>
+        <v>15888</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>28861</v>
+        <v>29768</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.4009864244571697</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2863988727710056</v>
+        <v>0.2866881680853137</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.5207855278853656</v>
+        <v>0.5371564731165922</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>55</v>
@@ -6761,19 +6761,19 @@
         <v>55650</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>44985</v>
+        <v>45076</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>68207</v>
+        <v>67506</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.4081458968006508</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3299252188389928</v>
+        <v>0.3305924864579076</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.5002389572694576</v>
+        <v>0.4951024366942134</v>
       </c>
     </row>
     <row r="31">
@@ -6790,19 +6790,19 @@
         <v>28558</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>20170</v>
+        <v>20511</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>37319</v>
+        <v>38842</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3528763841638661</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2492244479021745</v>
+        <v>0.2534357004460693</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.4611293208876898</v>
+        <v>0.4799394910202713</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>19</v>
@@ -6811,19 +6811,19 @@
         <v>17307</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>11506</v>
+        <v>11679</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>24356</v>
+        <v>24423</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.3122967796107154</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2076248619482055</v>
+        <v>0.210748091912564</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.4395042757714147</v>
+        <v>0.4407088962907101</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>48</v>
@@ -6832,19 +6832,19 @@
         <v>45865</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>35248</v>
+        <v>35373</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>56536</v>
+        <v>56770</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.3363829146235058</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2585116536063981</v>
+        <v>0.2594304942930329</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.4146454200177138</v>
+        <v>0.4163592764501497</v>
       </c>
     </row>
     <row r="32">
@@ -6861,19 +6861,19 @@
         <v>7192</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2944</v>
+        <v>2779</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>13542</v>
+        <v>14124</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.08886322337072655</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.03637852100857089</v>
+        <v>0.03433643334479756</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1673241407230386</v>
+        <v>0.174523750028699</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>2</v>
@@ -6885,7 +6885,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>6222</v>
+        <v>5382</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.03166355701789268</v>
@@ -6894,7 +6894,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1122667198476876</v>
+        <v>0.09712403820148839</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>9</v>
@@ -6903,19 +6903,19 @@
         <v>8946</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>4358</v>
+        <v>4557</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>15594</v>
+        <v>16308</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.06561457506333461</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.03196275780443012</v>
+        <v>0.03341914132133394</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1143690442496295</v>
+        <v>0.119609147774819</v>
       </c>
     </row>
     <row r="33">
@@ -7010,7 +7010,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>6069</v>
+        <v>6672</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.01833784412424306</v>
@@ -7019,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.05645198054027679</v>
+        <v>0.06206677400663636</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>3</v>
@@ -7028,19 +7028,19 @@
         <v>2744</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>878</v>
+        <v>885</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>7447</v>
+        <v>7381</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.03631704611421861</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.01162087540425447</v>
+        <v>0.01170492279237476</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.09855041083232148</v>
+        <v>0.0976684260916878</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>5</v>
@@ -7049,19 +7049,19 @@
         <v>4716</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1822</v>
+        <v>1851</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>10599</v>
+        <v>11273</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.02575934436255996</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.009955003290500006</v>
+        <v>0.01010927235545601</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.05789452466446132</v>
+        <v>0.06157750820523183</v>
       </c>
     </row>
     <row r="35">
@@ -7078,19 +7078,19 @@
         <v>20828</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>13645</v>
+        <v>13766</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>30115</v>
+        <v>30942</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1937486922620096</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1269307604224472</v>
+        <v>0.1280569585687514</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2801374188046478</v>
+        <v>0.287827715173092</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>12</v>
@@ -7099,19 +7099,19 @@
         <v>12014</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>6845</v>
+        <v>6406</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>19444</v>
+        <v>19396</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1589761748268014</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.09058166053194393</v>
+        <v>0.08477029508549458</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2573074213282396</v>
+        <v>0.2566668697000938</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>31</v>
@@ -7120,19 +7120,19 @@
         <v>32842</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>23828</v>
+        <v>23923</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>44930</v>
+        <v>44706</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1793952050173497</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1301572483030986</v>
+        <v>0.1306741709293684</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2454256999731193</v>
+        <v>0.2442021068315735</v>
       </c>
     </row>
     <row r="36">
@@ -7149,19 +7149,19 @@
         <v>30282</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>20921</v>
+        <v>21152</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>40066</v>
+        <v>40233</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2816855954118953</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1946113659596116</v>
+        <v>0.1967610771403897</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3727026327545428</v>
+        <v>0.3742574090132429</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>32</v>
@@ -7170,19 +7170,19 @@
         <v>31466</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>23010</v>
+        <v>23878</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>39601</v>
+        <v>39834</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.4163973835218323</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.3044893436628393</v>
+        <v>0.3159764421687408</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.5240399195321919</v>
+        <v>0.5271269106117132</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>61</v>
@@ -7191,19 +7191,19 @@
         <v>61748</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>49349</v>
+        <v>49887</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>75793</v>
+        <v>75879</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.337292266281905</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2695611235953073</v>
+        <v>0.2724981042340824</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.4140093360385788</v>
+        <v>0.4144780152357986</v>
       </c>
     </row>
     <row r="37">
@@ -7220,19 +7220,19 @@
         <v>26362</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>18208</v>
+        <v>17926</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>36238</v>
+        <v>36957</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.245226090037291</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1693739555400803</v>
+        <v>0.1667526245052417</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3370890688001755</v>
+        <v>0.3437790642808493</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>22</v>
@@ -7241,19 +7241,19 @@
         <v>20493</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>13311</v>
+        <v>13708</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>27986</v>
+        <v>29092</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2711894698088739</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1761481511800725</v>
+        <v>0.1813973535398796</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3703412276124775</v>
+        <v>0.3849804742076247</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>48</v>
@@ -7262,19 +7262,19 @@
         <v>46856</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>36261</v>
+        <v>36308</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>58708</v>
+        <v>59913</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2559433192708103</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1980682255151879</v>
+        <v>0.1983260883894223</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3206845878472931</v>
+        <v>0.3272676055903161</v>
       </c>
     </row>
     <row r="38">
@@ -7291,19 +7291,19 @@
         <v>28058</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>19323</v>
+        <v>20219</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>38638</v>
+        <v>38271</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.2610017781645612</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1797449656824284</v>
+        <v>0.1880771328629834</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.3594138295091973</v>
+        <v>0.3559989627658539</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>8</v>
@@ -7315,16 +7315,16 @@
         <v>4057</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>15560</v>
+        <v>16370</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1171199257282739</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.05368048188508039</v>
+        <v>0.05368516909720677</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.2059039098258295</v>
+        <v>0.2166257379590989</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>35</v>
@@ -7333,19 +7333,19 @@
         <v>36909</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>26293</v>
+        <v>26434</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>47855</v>
+        <v>49268</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.201609865067375</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1436224185515207</v>
+        <v>0.1443905934716834</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.2614035147571085</v>
+        <v>0.2691195901995205</v>
       </c>
     </row>
     <row r="39">
@@ -7437,19 +7437,19 @@
         <v>51766</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>39725</v>
+        <v>38787</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>67722</v>
+        <v>66441</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.1442461131275323</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.1106934981579814</v>
+        <v>0.1080799961419514</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1887064743841218</v>
+        <v>0.185137198772815</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>46</v>
@@ -7458,19 +7458,19 @@
         <v>48839</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>37836</v>
+        <v>38114</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>62785</v>
+        <v>62630</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.1720619776606351</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.1332971794444621</v>
+        <v>0.1342782389701725</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.2211925535393552</v>
+        <v>0.2206494476783503</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>93</v>
@@ -7479,19 +7479,19 @@
         <v>100605</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>82766</v>
+        <v>83067</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>120909</v>
+        <v>120231</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.1565304828318547</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.1287746437523866</v>
+        <v>0.1292424825566023</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1881209111349277</v>
+        <v>0.1870657122998331</v>
       </c>
     </row>
     <row r="41">
@@ -7508,19 +7508,19 @@
         <v>60369</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>47012</v>
+        <v>45266</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>77728</v>
+        <v>75688</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1682184030858564</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1309976716068865</v>
+        <v>0.1261323266561117</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2165877486128365</v>
+        <v>0.2109043997527926</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>51</v>
@@ -7529,19 +7529,19 @@
         <v>53207</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>40090</v>
+        <v>41120</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>65844</v>
+        <v>67388</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1874495485916475</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1412375422605132</v>
+        <v>0.1448678718675113</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2319720257040575</v>
+        <v>0.2374089140385884</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>105</v>
@@ -7550,19 +7550,19 @@
         <v>113576</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>94830</v>
+        <v>94317</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>133796</v>
+        <v>133339</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1767114880643805</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.14754423187887</v>
+        <v>0.1467467186515622</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.208171734269152</v>
+        <v>0.2074607358079326</v>
       </c>
     </row>
     <row r="42">
@@ -7579,19 +7579,19 @@
         <v>129000</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>110206</v>
+        <v>108852</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>148161</v>
+        <v>148544</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.3594557789410742</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.3070872925261497</v>
+        <v>0.3033139784957755</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.4128498614637284</v>
+        <v>0.4139164220987153</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>82</v>
@@ -7600,19 +7600,19 @@
         <v>84486</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>68680</v>
+        <v>71125</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>98667</v>
+        <v>101634</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2976480653401268</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2419627669287774</v>
+        <v>0.2505749727885025</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.3476092656951155</v>
+        <v>0.3580615774911817</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>192</v>
@@ -7621,19 +7621,19 @@
         <v>213486</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>189565</v>
+        <v>188243</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>238937</v>
+        <v>237908</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.3321595285027917</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2949419849386786</v>
+        <v>0.292883760360854</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.3717592160237877</v>
+        <v>0.3701577905948993</v>
       </c>
     </row>
     <row r="43">
@@ -7650,19 +7650,19 @@
         <v>49781</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>37046</v>
+        <v>37331</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>65227</v>
+        <v>65291</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.1387146585308603</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1032278642890375</v>
+        <v>0.1040224442668945</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.1817541691264024</v>
+        <v>0.1819333136469288</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>48</v>
@@ -7671,19 +7671,19 @@
         <v>48549</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>37116</v>
+        <v>37620</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>61733</v>
+        <v>62042</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.1710408516425424</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.1307595595379286</v>
+        <v>0.1325355100779926</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.2174889175234813</v>
+        <v>0.2185747558435553</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>90</v>
@@ -7692,19 +7692,19 @@
         <v>98330</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>80328</v>
+        <v>80190</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>119285</v>
+        <v>118929</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.1529909326637257</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1249818094856315</v>
+        <v>0.1247660829260889</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.1855930222298855</v>
+        <v>0.1850397546360668</v>
       </c>
     </row>
     <row r="44">
@@ -7721,19 +7721,19 @@
         <v>67958</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>53562</v>
+        <v>54282</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>84306</v>
+        <v>84592</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.1893650463146768</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1492506957004854</v>
+        <v>0.1512551817410409</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2349187201582153</v>
+        <v>0.2357133384507187</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>46</v>
@@ -7742,19 +7742,19 @@
         <v>48765</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>37075</v>
+        <v>36968</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>62392</v>
+        <v>62385</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.1717995567650483</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.1306148561331925</v>
+        <v>0.1302401945965199</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.2198108181843645</v>
+        <v>0.2197839207514259</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>105</v>
@@ -7763,19 +7763,19 @@
         <v>116723</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>98246</v>
+        <v>97610</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>137260</v>
+        <v>136784</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.1816075679372475</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.1528592080892333</v>
+        <v>0.1518701469289845</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.2135609990023541</v>
+        <v>0.212820181549642</v>
       </c>
     </row>
     <row r="45">
@@ -7867,19 +7867,19 @@
         <v>12757</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>6621</v>
+        <v>7032</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>22276</v>
+        <v>22884</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.0389025241117936</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.02019237045456836</v>
+        <v>0.02144332608638531</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.06793402768586711</v>
+        <v>0.06978790537573552</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>7</v>
@@ -7888,19 +7888,19 @@
         <v>7401</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>3289</v>
+        <v>3106</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>15332</v>
+        <v>15043</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.03120070106267769</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.01386546123863152</v>
+        <v>0.01309244347448688</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.06463649231129923</v>
+        <v>0.06341702592159669</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>18</v>
@@ -7909,19 +7909,19 @@
         <v>20158</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>12056</v>
+        <v>12166</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>31922</v>
+        <v>31425</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.03566971387209189</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.02133344342927395</v>
+        <v>0.02152877418963338</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.05648750764469904</v>
+        <v>0.05560771772997629</v>
       </c>
     </row>
     <row r="47">
@@ -7938,19 +7938,19 @@
         <v>25798</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>16820</v>
+        <v>16798</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>36169</v>
+        <v>37781</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.07867244828919547</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.0512936485646968</v>
+        <v>0.05122828793844949</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.1102994672785869</v>
+        <v>0.1152176906236821</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>24</v>
@@ -7959,19 +7959,19 @@
         <v>24428</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>16362</v>
+        <v>16430</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>34973</v>
+        <v>34763</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.1029822365127653</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.06897704055323296</v>
+        <v>0.06926332248698876</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.1474373643336898</v>
+        <v>0.1465503987908426</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>49</v>
@@ -7980,19 +7980,19 @@
         <v>50226</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>36756</v>
+        <v>38197</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>64529</v>
+        <v>65015</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.08887638725182301</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.0650410899255689</v>
+        <v>0.06759122042351519</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.1141868221274887</v>
+        <v>0.115045784804595</v>
       </c>
     </row>
     <row r="48">
@@ -8009,19 +8009,19 @@
         <v>82563</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>68954</v>
+        <v>66216</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>99121</v>
+        <v>97579</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.2517834110376957</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.2102798616946121</v>
+        <v>0.2019302968667691</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.3022783745395734</v>
+        <v>0.2975746274706172</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>61</v>
@@ -8030,19 +8030,19 @@
         <v>61379</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>49354</v>
+        <v>49504</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>75352</v>
+        <v>75393</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.2587580130936656</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.2080628819706866</v>
+        <v>0.2086952983549131</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.3176640744075572</v>
+        <v>0.3178351991432251</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>141</v>
@@ -8051,19 +8051,19 @@
         <v>143942</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>125938</v>
+        <v>123486</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>166436</v>
+        <v>166792</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.2547109730967815</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.2228517782565389</v>
+        <v>0.21851273317577</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.2945145642252194</v>
+        <v>0.2951443370040021</v>
       </c>
     </row>
     <row r="49">
@@ -8080,19 +8080,19 @@
         <v>119461</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>102647</v>
+        <v>101262</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>138426</v>
+        <v>136338</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.3643078014045545</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.3130303663498986</v>
+        <v>0.3088081802190126</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.4221433157523449</v>
+        <v>0.4157752047176148</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>92</v>
@@ -8101,19 +8101,19 @@
         <v>97962</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>83366</v>
+        <v>83048</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>113037</v>
+        <v>112745</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.4129804412612882</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.3514499723457417</v>
+        <v>0.3501076521077887</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.4765339902234268</v>
+        <v>0.4753036783441715</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>208</v>
@@ -8122,19 +8122,19 @@
         <v>217423</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>193926</v>
+        <v>194926</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>241387</v>
+        <v>240958</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.3847379524893973</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.3431587694468697</v>
+        <v>0.3449291012432162</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.4271433152522922</v>
+        <v>0.4263840201613053</v>
       </c>
     </row>
     <row r="50">
@@ -8151,19 +8151,19 @@
         <v>87334</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>72592</v>
+        <v>71242</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>107780</v>
+        <v>104465</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.2663338151567607</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.2213746817456741</v>
+        <v>0.217259981345613</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.3286858425995534</v>
+        <v>0.3185747059890864</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>44</v>
@@ -8172,19 +8172,19 @@
         <v>46037</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>34955</v>
+        <v>34733</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>59997</v>
+        <v>60048</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.1940786080696032</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.1473613357003652</v>
+        <v>0.1464266123359558</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.2529318588044452</v>
+        <v>0.2531444738496575</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>126</v>
@@ -8193,19 +8193,19 @@
         <v>133371</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>113238</v>
+        <v>115314</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>153647</v>
+        <v>155408</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.2360049732899064</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.2003797604017312</v>
+        <v>0.2040521851578995</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.2718848603968729</v>
+        <v>0.2750004921330604</v>
       </c>
     </row>
     <row r="51">
@@ -8297,19 +8297,19 @@
         <v>135414</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>113787</v>
+        <v>113524</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>159998</v>
+        <v>159135</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.09560859630778333</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.08033867189712543</v>
+        <v>0.08015320157799609</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.1129657734908821</v>
+        <v>0.1123568478719251</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>114</v>
@@ -8318,19 +8318,19 @@
         <v>119970</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>101019</v>
+        <v>100701</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>143146</v>
+        <v>142373</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.1162519165793094</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.09788857024152436</v>
+        <v>0.09758042548393267</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.1387094015950927</v>
+        <v>0.137961013437099</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>238</v>
@@ -8339,19 +8339,19 @@
         <v>255384</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>228111</v>
+        <v>227106</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>287232</v>
+        <v>287344</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.1043098859139086</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.09317042500768982</v>
+        <v>0.09275988660176217</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.1173182615735414</v>
+        <v>0.1173637742131466</v>
       </c>
     </row>
     <row r="53">
@@ -8368,19 +8368,19 @@
         <v>194496</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>169006</v>
+        <v>170405</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>223786</v>
+        <v>224635</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.1373231902961236</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.119326315643979</v>
+        <v>0.1203139885982938</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.1580031602093279</v>
+        <v>0.1586031114324928</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>155</v>
@@ -8389,19 +8389,19 @@
         <v>157024</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>134361</v>
+        <v>135235</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>180332</v>
+        <v>181168</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.1521575090823673</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.130197519875474</v>
+        <v>0.1310441243980009</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.1747437356600756</v>
+        <v>0.1755533816710771</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>338</v>
@@ -8410,19 +8410,19 @@
         <v>351520</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>317672</v>
+        <v>319884</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>386164</v>
+        <v>389106</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.1435759491629582</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.1297509604409512</v>
+        <v>0.1306546818640814</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.1577261566333893</v>
+        <v>0.1589278693809477</v>
       </c>
     </row>
     <row r="54">
@@ -8439,19 +8439,19 @@
         <v>396121</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>361457</v>
+        <v>363342</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>431677</v>
+        <v>435729</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.2796801439401208</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.2552057843563842</v>
+        <v>0.256536487177198</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.3047838513065165</v>
+        <v>0.3076451323028218</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>273</v>
@@ -8460,19 +8460,19 @@
         <v>273919</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>246091</v>
+        <v>247248</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>301388</v>
+        <v>306852</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.2654304884971297</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.2384647189386752</v>
+        <v>0.2395857188060451</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.2920474812662015</v>
+        <v>0.297342248589875</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>639</v>
@@ -8481,19 +8481,19 @@
         <v>670041</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>625384</v>
+        <v>622649</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>713358</v>
+        <v>711832</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.2736738243575104</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.2554340905742915</v>
+        <v>0.254317195702238</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.2913665751450307</v>
+        <v>0.2907432131192717</v>
       </c>
     </row>
     <row r="55">
@@ -8510,19 +8510,19 @@
         <v>319024</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>288166</v>
+        <v>290682</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>353448</v>
+        <v>352353</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.2252459535106222</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.2034585079881952</v>
+        <v>0.2052349759058956</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.2495505276002287</v>
+        <v>0.2487773756758838</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>239</v>
@@ -8531,19 +8531,19 @@
         <v>241341</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>214809</v>
+        <v>215093</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>269338</v>
+        <v>267545</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.2338612157605934</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.2081517794248036</v>
+        <v>0.2084275357426549</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.2609910365694293</v>
+        <v>0.2592535213226542</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>539</v>
@@ -8552,19 +8552,19 @@
         <v>560365</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>520472</v>
+        <v>521660</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>603975</v>
+        <v>605025</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.2288773408496598</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.2125833053902186</v>
+        <v>0.2130689029025283</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.2466895650310997</v>
+        <v>0.2471186341380703</v>
       </c>
     </row>
     <row r="56">
@@ -8581,19 +8581,19 @@
         <v>371282</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>338142</v>
+        <v>337651</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>405560</v>
+        <v>406789</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.2621421159453501</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.2387438008944741</v>
+        <v>0.2383970651318025</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.2863444081615271</v>
+        <v>0.2872121426571494</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>227</v>
@@ -8602,19 +8602,19 @@
         <v>239728</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>213713</v>
+        <v>213823</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>269236</v>
+        <v>270235</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.2322988700806002</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.2070900199847099</v>
+        <v>0.2071961352681761</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.2608923195213965</v>
+        <v>0.2618599208364539</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>571</v>
@@ -8623,19 +8623,19 @@
         <v>611010</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>566618</v>
+        <v>567501</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>657290</v>
+        <v>655379</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.249562999715963</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.2314314612346433</v>
+        <v>0.2317921607646258</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.2684659037273501</v>
+        <v>0.2676855517162912</v>
       </c>
     </row>
     <row r="57">
@@ -8971,19 +8971,19 @@
         <v>4739</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1228</v>
+        <v>1205</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>12577</v>
+        <v>12513</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1160437620270895</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03006031227111268</v>
+        <v>0.02950628424979126</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3079447724868047</v>
+        <v>0.3063828626060954</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -8992,19 +8992,19 @@
         <v>2359</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>527</v>
+        <v>512</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6324</v>
+        <v>6254</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0720423368084098</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01609304635450041</v>
+        <v>0.01565314475642179</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1931471626125386</v>
+        <v>0.1910080200829416</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -9013,19 +9013,19 @@
         <v>7098</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2578</v>
+        <v>2664</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>15397</v>
+        <v>15240</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09646498963287199</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03503815230821728</v>
+        <v>0.03619771264390394</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2092434514903209</v>
+        <v>0.207120455571371</v>
       </c>
     </row>
     <row r="5">
@@ -9055,19 +9055,19 @@
         <v>2440</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>516</v>
+        <v>536</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>6215</v>
+        <v>6897</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07453344184374781</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01576768555858571</v>
+        <v>0.0163596666181345</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.189830332384464</v>
+        <v>0.2106541921519003</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>3</v>
@@ -9076,19 +9076,19 @@
         <v>2440</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>525</v>
+        <v>506</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>7189</v>
+        <v>6936</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03316422789407485</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.007134708003050458</v>
+        <v>0.00687933627365318</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.09769901346403974</v>
+        <v>0.09425794042382833</v>
       </c>
     </row>
     <row r="6">
@@ -9105,19 +9105,19 @@
         <v>18697</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>12514</v>
+        <v>12179</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>25987</v>
+        <v>25711</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4578090399287643</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3064162314163893</v>
+        <v>0.298196764212284</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6362856252043145</v>
+        <v>0.6295321695305713</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>19</v>
@@ -9126,19 +9126,19 @@
         <v>10088</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>6643</v>
+        <v>6355</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>14644</v>
+        <v>14417</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.3081057070875418</v>
+        <v>0.3081057070875417</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2028829667076656</v>
+        <v>0.1941047976175442</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4472532555946306</v>
+        <v>0.4403289475379407</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>36</v>
@@ -9147,19 +9147,19 @@
         <v>28785</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>21706</v>
+        <v>21128</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>38728</v>
+        <v>37287</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3911973911972184</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2949938981893355</v>
+        <v>0.287140248329273</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5263200352045769</v>
+        <v>0.5067416613523975</v>
       </c>
     </row>
     <row r="7">
@@ -9176,19 +9176,19 @@
         <v>13989</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8805</v>
+        <v>8766</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>20659</v>
+        <v>20812</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.3425247799028907</v>
+        <v>0.3425247799028906</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2155948737922346</v>
+        <v>0.2146390854142232</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.505851540816724</v>
+        <v>0.5095907311017023</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>29</v>
@@ -9197,19 +9197,19 @@
         <v>16850</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>12136</v>
+        <v>12357</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>21086</v>
+        <v>21079</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.5146317208495184</v>
+        <v>0.5146317208495185</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3706585926218497</v>
+        <v>0.3774102895646037</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6440176525977711</v>
+        <v>0.6438121153801619</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>45</v>
@@ -9218,19 +9218,19 @@
         <v>30839</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>23431</v>
+        <v>23842</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>38495</v>
+        <v>39163</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.419105086279616</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3184398580199548</v>
+        <v>0.3240237611395425</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.523158982851059</v>
+        <v>0.5322387071986764</v>
       </c>
     </row>
     <row r="8">
@@ -9247,19 +9247,19 @@
         <v>3415</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>825</v>
+        <v>813</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>8052</v>
+        <v>7841</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.08362241814125554</v>
+        <v>0.08362241814125553</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02020549656592238</v>
+        <v>0.01990862848882111</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1971469916739726</v>
+        <v>0.1919949256449994</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2</v>
@@ -9271,7 +9271,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>3198</v>
+        <v>3621</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.03068679341078235</v>
@@ -9280,7 +9280,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.09768046540323701</v>
+        <v>0.1105919997631162</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>6</v>
@@ -9289,19 +9289,19 @@
         <v>4420</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1870</v>
+        <v>1574</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>9160</v>
+        <v>8920</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.060068304996219</v>
+        <v>0.06006830499621899</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02541549103570259</v>
+        <v>0.02138691832622918</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1244902021925877</v>
+        <v>0.1212309840011741</v>
       </c>
     </row>
     <row r="9">
@@ -9393,19 +9393,19 @@
         <v>10334</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5053</v>
+        <v>4609</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>18315</v>
+        <v>18597</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1995343015247132</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09756866444744382</v>
+        <v>0.08898893782562428</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.353637653714447</v>
+        <v>0.3590719134677173</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>11</v>
@@ -9414,19 +9414,19 @@
         <v>9369</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4930</v>
+        <v>5342</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>15046</v>
+        <v>15106</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.220930645571736</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1162529501838437</v>
+        <v>0.1259561119225254</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3547842737610828</v>
+        <v>0.3562152893084113</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>19</v>
@@ -9435,19 +9435,19 @@
         <v>19703</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>12547</v>
+        <v>12127</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>28341</v>
+        <v>29495</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2091668791798273</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1331939141206273</v>
+        <v>0.12874317993968</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3008581427910045</v>
+        <v>0.3131170969577067</v>
       </c>
     </row>
     <row r="11">
@@ -9464,19 +9464,19 @@
         <v>14041</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>6983</v>
+        <v>7044</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>23436</v>
+        <v>23725</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2711162922221844</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1348264332245323</v>
+        <v>0.1360060005497143</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4525083910925134</v>
+        <v>0.4580860801712935</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>8</v>
@@ -9485,19 +9485,19 @@
         <v>6898</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>2695</v>
+        <v>2929</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>11636</v>
+        <v>12336</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1626664937036464</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.06355695954443093</v>
+        <v>0.06907846378825792</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2743718916701935</v>
+        <v>0.2908941160408935</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>16</v>
@@ -9506,19 +9506,19 @@
         <v>20940</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>12221</v>
+        <v>12824</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>31902</v>
+        <v>32560</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2222924789756096</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1297357386838153</v>
+        <v>0.136134414640466</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3386620827889985</v>
+        <v>0.345654231655414</v>
       </c>
     </row>
     <row r="12">
@@ -9535,19 +9535,19 @@
         <v>14130</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7659</v>
+        <v>7057</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>22894</v>
+        <v>23215</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2728306318580927</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1478915589027922</v>
+        <v>0.1362636536221983</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.442052318445783</v>
+        <v>0.4482528129722286</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>11</v>
@@ -9556,19 +9556,19 @@
         <v>9290</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>5311</v>
+        <v>4783</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>15083</v>
+        <v>15293</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.2190644141035058</v>
+        <v>0.2190644141035057</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.125230996366302</v>
+        <v>0.1127751503924023</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3556563964158045</v>
+        <v>0.3606228363578965</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>21</v>
@@ -9577,19 +9577,19 @@
         <v>23420</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>15246</v>
+        <v>15371</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>33875</v>
+        <v>34264</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2486252224383978</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1618494266372842</v>
+        <v>0.1631770540670894</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3596086201115836</v>
+        <v>0.3637367118267252</v>
       </c>
     </row>
     <row r="13">
@@ -9609,16 +9609,16 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8807</v>
+        <v>8127</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.04954784526926461</v>
+        <v>0.04954784526926462</v>
       </c>
       <c r="H13" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1700523121124767</v>
+        <v>0.1569113054538338</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4</v>
@@ -9627,19 +9627,19 @@
         <v>3057</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>6933</v>
+        <v>6685</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07209713917670069</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01756494994610167</v>
+        <v>0.01765950222030531</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1634943188367135</v>
+        <v>0.1576278262168883</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>6</v>
@@ -9648,19 +9648,19 @@
         <v>5624</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2095</v>
+        <v>2466</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>12073</v>
+        <v>12273</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.05969947791052388</v>
+        <v>0.05969947791052389</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02224119792364412</v>
+        <v>0.02617810022820288</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1281624864486027</v>
+        <v>0.1302829090054815</v>
       </c>
     </row>
     <row r="14">
@@ -9677,19 +9677,19 @@
         <v>10719</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4525</v>
+        <v>4791</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>18745</v>
+        <v>20077</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.2069709291257451</v>
+        <v>0.2069709291257452</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.08736652995316836</v>
+        <v>0.09250046519966747</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3619307900901597</v>
+        <v>0.3876480063776712</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>17</v>
@@ -9698,19 +9698,19 @@
         <v>13793</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>9101</v>
+        <v>8737</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>20342</v>
+        <v>19241</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3252413074444113</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2146163172630983</v>
+        <v>0.206026804088804</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4796726014199209</v>
+        <v>0.4537099785508099</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>24</v>
@@ -9719,19 +9719,19 @@
         <v>24512</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>16368</v>
+        <v>15792</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>34785</v>
+        <v>34810</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.2602159414956411</v>
+        <v>0.2602159414956412</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1737558681115712</v>
+        <v>0.1676463482822412</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3692716271073455</v>
+        <v>0.3695345281553192</v>
       </c>
     </row>
     <row r="15">
@@ -9823,19 +9823,19 @@
         <v>3756</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>944</v>
+        <v>956</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8675</v>
+        <v>8236</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1303936403684863</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03278601243121713</v>
+        <v>0.03317730305929578</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.301165800771394</v>
+        <v>0.2859389178527184</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>7</v>
@@ -9844,19 +9844,19 @@
         <v>5309</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2509</v>
+        <v>2336</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10120</v>
+        <v>9837</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1830215312513097</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0865127424038059</v>
+        <v>0.08054840347403264</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3488959904309132</v>
+        <v>0.3391259967090768</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>11</v>
@@ -9865,19 +9865,19 @@
         <v>9065</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4754</v>
+        <v>4582</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>14919</v>
+        <v>15156</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1567995868791421</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08224027969986004</v>
+        <v>0.07925616845501514</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2580622258678805</v>
+        <v>0.2621546112029596</v>
       </c>
     </row>
     <row r="17">
@@ -9894,19 +9894,19 @@
         <v>6270</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2601</v>
+        <v>2565</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>11761</v>
+        <v>11342</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.2176700715966251</v>
+        <v>0.217670071596625</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09029690634776012</v>
+        <v>0.08904043585167859</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4083116154786056</v>
+        <v>0.3937591364505773</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>10</v>
@@ -9915,19 +9915,19 @@
         <v>7177</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3751</v>
+        <v>3716</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>11651</v>
+        <v>11812</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2474099276303295</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1293206064318067</v>
+        <v>0.1281128616992707</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4016574348668295</v>
+        <v>0.4072115071865587</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>16</v>
@@ -9936,19 +9936,19 @@
         <v>13447</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>8009</v>
+        <v>7748</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>20659</v>
+        <v>19618</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2325919891290814</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1385296296771295</v>
+        <v>0.1340184720820534</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.357342562697219</v>
+        <v>0.3393445955784206</v>
       </c>
     </row>
     <row r="18">
@@ -9965,19 +9965,19 @@
         <v>7753</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3253</v>
+        <v>3470</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>13039</v>
+        <v>13419</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2691429811913794</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1129213267349111</v>
+        <v>0.1204654736974445</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4526709993764083</v>
+        <v>0.4658422516670713</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>8</v>
@@ -9986,19 +9986,19 @@
         <v>5172</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>2372</v>
+        <v>2669</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>9284</v>
+        <v>9210</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1783142296788383</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.08177652436919534</v>
+        <v>0.09200339881413873</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3200719660380865</v>
+        <v>0.317501311605054</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>15</v>
@@ -10007,19 +10007,19 @@
         <v>12925</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>7920</v>
+        <v>7299</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>20002</v>
+        <v>20071</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2235698238058799</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1369919796876178</v>
+        <v>0.1262554368048475</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3459764807436133</v>
+        <v>0.3471853413201283</v>
       </c>
     </row>
     <row r="19">
@@ -10039,7 +10039,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5299</v>
+        <v>5398</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.06004860240564427</v>
@@ -10048,7 +10048,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1839766388781335</v>
+        <v>0.1874041651241176</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>7</v>
@@ -10057,19 +10057,19 @@
         <v>6244</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2946</v>
+        <v>2660</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>11521</v>
+        <v>11643</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.215249732862056</v>
+        <v>0.2152497328620561</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1015781315615592</v>
+        <v>0.09168505872658962</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3971680954318865</v>
+        <v>0.4013891354783594</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>9</v>
@@ -10078,19 +10078,19 @@
         <v>7973</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>3608</v>
+        <v>3836</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>14101</v>
+        <v>14855</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.137920481374727</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06240734191334295</v>
+        <v>0.06635007328374429</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2439186047104902</v>
+        <v>0.2569459609243461</v>
       </c>
     </row>
     <row r="20">
@@ -10107,19 +10107,19 @@
         <v>9297</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>5037</v>
+        <v>4790</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>14743</v>
+        <v>14590</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.322744704437865</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1748686386115831</v>
+        <v>0.1662914724121436</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5118172200565625</v>
+        <v>0.5065007593184275</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>8</v>
@@ -10128,19 +10128,19 @@
         <v>5105</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2488</v>
+        <v>2259</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>9170</v>
+        <v>9020</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1760045785774665</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.08578056619813387</v>
+        <v>0.07788344054447154</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3161277557192258</v>
+        <v>0.3109463573019019</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>17</v>
@@ -10149,19 +10149,19 @@
         <v>14402</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>8664</v>
+        <v>9101</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>20924</v>
+        <v>21613</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2491181188111697</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1498662576264123</v>
+        <v>0.1574168633512731</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3619266249878203</v>
+        <v>0.3738549299473372</v>
       </c>
     </row>
     <row r="21">
@@ -10253,19 +10253,19 @@
         <v>17901</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>8880</v>
+        <v>9417</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>30238</v>
+        <v>30741</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.2613866484413627</v>
+        <v>0.2613866484413626</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1296660528675667</v>
+        <v>0.1375040046808</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4415238118931949</v>
+        <v>0.4488658302715234</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>19</v>
@@ -10274,19 +10274,19 @@
         <v>17597</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>11110</v>
+        <v>11467</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>25357</v>
+        <v>25705</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3788966246470575</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2392192267528185</v>
+        <v>0.2469176270400653</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5459863259084851</v>
+        <v>0.5534851128232142</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>30</v>
@@ -10295,19 +10295,19 @@
         <v>35498</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>23959</v>
+        <v>24119</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>49785</v>
+        <v>50682</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3088725526539223</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2084680881349291</v>
+        <v>0.2098630634587721</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4331808055977435</v>
+        <v>0.4409859879267063</v>
       </c>
     </row>
     <row r="23">
@@ -10324,19 +10324,19 @@
         <v>5784</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1830</v>
+        <v>1845</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>15742</v>
+        <v>16037</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.08445009718505261</v>
+        <v>0.08445009718505259</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.02671701088603723</v>
+        <v>0.02694553776636438</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2298663006533398</v>
+        <v>0.2341636809249412</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>5</v>
@@ -10345,19 +10345,19 @@
         <v>4882</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1602</v>
+        <v>1735</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>12148</v>
+        <v>12823</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1051260525921676</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.03449983463027512</v>
+        <v>0.03735684806815544</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.261568083966486</v>
+        <v>0.276100059111406</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>9</v>
@@ -10366,19 +10366,19 @@
         <v>10666</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5017</v>
+        <v>5011</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>20773</v>
+        <v>21954</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.09280527237670443</v>
+        <v>0.0928052723767044</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.0436542296616372</v>
+        <v>0.04360143338674762</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1807485842203375</v>
+        <v>0.191026930466981</v>
       </c>
     </row>
     <row r="24">
@@ -10395,19 +10395,19 @@
         <v>12581</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5289</v>
+        <v>4646</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>24103</v>
+        <v>25024</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.183711391889482</v>
+        <v>0.1837113918894819</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.07723499841846812</v>
+        <v>0.06784051279908761</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3519435709273182</v>
+        <v>0.3653878409650643</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>6</v>
@@ -10416,19 +10416,19 @@
         <v>6193</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>2326</v>
+        <v>2289</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>13556</v>
+        <v>13718</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1333492532571921</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.05009418623719934</v>
+        <v>0.04927928741891769</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2918805887248219</v>
+        <v>0.2953816242166025</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>13</v>
@@ -10437,19 +10437,19 @@
         <v>18775</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>10009</v>
+        <v>10638</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>30960</v>
+        <v>32199</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.1633599990269186</v>
+        <v>0.1633599990269185</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.08708778397440051</v>
+        <v>0.09256489545974697</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2693849374087101</v>
+        <v>0.2801695546327029</v>
       </c>
     </row>
     <row r="25">
@@ -10466,19 +10466,19 @@
         <v>5658</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1498</v>
+        <v>1377</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>14222</v>
+        <v>12610</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.08262156293298192</v>
+        <v>0.08262156293298191</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02187236779738971</v>
+        <v>0.02010889678843669</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2076703130240247</v>
+        <v>0.1841293706914066</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>6</v>
@@ -10487,19 +10487,19 @@
         <v>5518</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1836</v>
+        <v>2078</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>11099</v>
+        <v>11784</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.118807430721968</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03952325774919375</v>
+        <v>0.04474516984948744</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2389961246930429</v>
+        <v>0.2537301796007428</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>10</v>
@@ -10508,19 +10508,19 @@
         <v>11176</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>5854</v>
+        <v>5960</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>20451</v>
+        <v>19471</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.09724430992995452</v>
+        <v>0.09724430992995449</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05093832452443992</v>
+        <v>0.05185694880574056</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1779472795409935</v>
+        <v>0.1694171689202575</v>
       </c>
     </row>
     <row r="26">
@@ -10537,19 +10537,19 @@
         <v>26561</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>14477</v>
+        <v>15047</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>39929</v>
+        <v>40490</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.387830299551121</v>
+        <v>0.3878302995511209</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.21138542510625</v>
+        <v>0.219708295900793</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.583030107756815</v>
+        <v>0.5912221478426481</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>12</v>
@@ -10558,19 +10558,19 @@
         <v>12252</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>6667</v>
+        <v>6761</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>20469</v>
+        <v>20570</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2638206387816149</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1435532726161428</v>
+        <v>0.1455885637348536</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4407368941535378</v>
+        <v>0.4429128498245236</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>23</v>
@@ -10579,19 +10579,19 @@
         <v>38813</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>25196</v>
+        <v>26447</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>54298</v>
+        <v>54811</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.3377178660125003</v>
+        <v>0.3377178660125002</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2192297453777978</v>
+        <v>0.2301217456808332</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4724510901552695</v>
+        <v>0.4769133889772737</v>
       </c>
     </row>
     <row r="27">
@@ -10683,19 +10683,19 @@
         <v>2000</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>563</v>
+        <v>587</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>5524</v>
+        <v>5659</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.09018344314048134</v>
+        <v>0.09018344314048132</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.0253952656401825</v>
+        <v>0.02647507785879467</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2491632816224191</v>
+        <v>0.2552510197046864</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1</v>
@@ -10707,16 +10707,16 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>3759</v>
+        <v>3300</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.03214764383615384</v>
+        <v>0.03214764383615385</v>
       </c>
       <c r="O28" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1615685203045829</v>
+        <v>0.1418318549938949</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>4</v>
@@ -10725,19 +10725,19 @@
         <v>2747</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>690</v>
+        <v>728</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>6313</v>
+        <v>6458</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.06046750145087255</v>
+        <v>0.06046750145087253</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01519069074986749</v>
+        <v>0.01601229610555951</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1389399801508783</v>
+        <v>0.1421214511453398</v>
       </c>
     </row>
     <row r="29">
@@ -10757,7 +10757,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>4537</v>
+        <v>3215</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.03313794442299759</v>
@@ -10766,7 +10766,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2046238811370673</v>
+        <v>0.1449865123043926</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>6</v>
@@ -10775,19 +10775,19 @@
         <v>4277</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1533</v>
+        <v>1809</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>8486</v>
+        <v>8410</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1838579349343572</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.06590443853796364</v>
+        <v>0.0777384253429565</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3647674052235251</v>
+        <v>0.3614816440591749</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>7</v>
@@ -10796,19 +10796,19 @@
         <v>5012</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1998</v>
+        <v>2216</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>9462</v>
+        <v>10623</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.11031076711487</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.04397532105325202</v>
+        <v>0.04876696943688834</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.208247356423308</v>
+        <v>0.2337906418145647</v>
       </c>
     </row>
     <row r="30">
@@ -10825,19 +10825,19 @@
         <v>11994</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>7460</v>
+        <v>7695</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>16326</v>
+        <v>16426</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.5409351988363058</v>
+        <v>0.5409351988363059</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3364485267312384</v>
+        <v>0.3470541345974804</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.7363506188546918</v>
+        <v>0.7408412891406728</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>25</v>
@@ -10846,19 +10846,19 @@
         <v>14253</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>10115</v>
+        <v>9941</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>17952</v>
+        <v>17507</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.6126301350688437</v>
+        <v>0.6126301350688436</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.4347777684597502</v>
+        <v>0.4272804138067913</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.771651691216504</v>
+        <v>0.7525088448955121</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>38</v>
@@ -10867,19 +10867,19 @@
         <v>26246</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>20750</v>
+        <v>20994</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>32091</v>
+        <v>31589</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.5776449981337105</v>
+        <v>0.5776449981337104</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.4566815976752651</v>
+        <v>0.4620465909922843</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.7062643983767478</v>
+        <v>0.695223601137095</v>
       </c>
     </row>
     <row r="31">
@@ -10896,19 +10896,19 @@
         <v>3012</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>771</v>
+        <v>792</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>7035</v>
+        <v>6741</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1358583330238518</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.03476182342819598</v>
+        <v>0.03570057909112916</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3173039275601665</v>
+        <v>0.3040185267481259</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>5</v>
@@ -10917,19 +10917,19 @@
         <v>3183</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>1050</v>
+        <v>1164</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>7734</v>
+        <v>6691</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.1368267424697321</v>
+        <v>0.1368267424697322</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.04512534900346372</v>
+        <v>0.05004153011964527</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3324181491993909</v>
+        <v>0.2875991272826813</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>9</v>
@@ -10938,19 +10938,19 @@
         <v>6196</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>2836</v>
+        <v>3086</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>10782</v>
+        <v>10811</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1363541855660826</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.06241721411513503</v>
+        <v>0.0679265507109349</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2372917665182001</v>
+        <v>0.2379360038797609</v>
       </c>
     </row>
     <row r="32">
@@ -10967,19 +10967,19 @@
         <v>4432</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1573</v>
+        <v>1491</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>8492</v>
+        <v>8724</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.1998850805763633</v>
+        <v>0.1998850805763634</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.0709557817415591</v>
+        <v>0.06723954078356438</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3830138096767857</v>
+        <v>0.3934879357486298</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>2</v>
@@ -10991,7 +10991,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>2566</v>
+        <v>2498</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.03453754369091307</v>
@@ -11000,7 +11000,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1102777855818245</v>
+        <v>0.1073887779941656</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>8</v>
@@ -11009,19 +11009,19 @@
         <v>5235</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>2309</v>
+        <v>2329</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>9445</v>
+        <v>9528</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.1152225477344645</v>
+        <v>0.1152225477344644</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.05081646341399124</v>
+        <v>0.05124745920968889</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2078603337221689</v>
+        <v>0.209703018362825</v>
       </c>
     </row>
     <row r="33">
@@ -11116,7 +11116,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>4585</v>
+        <v>4401</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.02629775443982065</v>
@@ -11125,7 +11125,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1370379189127153</v>
+        <v>0.1315382074082959</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>5</v>
@@ -11134,19 +11134,19 @@
         <v>3986</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>1404</v>
+        <v>1489</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>7702</v>
+        <v>8121</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.201182971834249</v>
+        <v>0.2011829718342489</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.07085666578644886</v>
+        <v>0.07514546906089281</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.3887663444873775</v>
+        <v>0.4099287792306992</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>6</v>
@@ -11155,19 +11155,19 @@
         <v>4866</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1910</v>
+        <v>1945</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>9335</v>
+        <v>10376</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.09133600719959539</v>
+        <v>0.09133600719959538</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.03585941096224122</v>
+        <v>0.03650247999031067</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1752305252774291</v>
+        <v>0.1947813249844417</v>
       </c>
     </row>
     <row r="35">
@@ -11184,19 +11184,19 @@
         <v>3692</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>1462</v>
+        <v>780</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>8955</v>
+        <v>8523</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.110349566613098</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.04369316483975598</v>
+        <v>0.02330141124454268</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2676474040625679</v>
+        <v>0.2547192012767474</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>3</v>
@@ -11205,19 +11205,19 @@
         <v>2336</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>592</v>
+        <v>601</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>5803</v>
+        <v>6036</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1178914260536925</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.0299004788358523</v>
+        <v>0.03035030633673295</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2929047479956607</v>
+        <v>0.3046771159872688</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>7</v>
@@ -11226,19 +11226,19 @@
         <v>6028</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>2779</v>
+        <v>2715</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>10977</v>
+        <v>11820</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.113154316882355</v>
+        <v>0.1131543168823549</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.05216914369215194</v>
+        <v>0.05095967818165666</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2060678433114556</v>
+        <v>0.2218831636649838</v>
       </c>
     </row>
     <row r="36">
@@ -11255,19 +11255,19 @@
         <v>10537</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>5285</v>
+        <v>6423</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>16216</v>
+        <v>17094</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.3149117822640752</v>
+        <v>0.3149117822640751</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.157945946528296</v>
+        <v>0.1919615546378484</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.4846252311041481</v>
+        <v>0.5108913748798307</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>10</v>
@@ -11276,19 +11276,19 @@
         <v>7640</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>4200</v>
+        <v>4033</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>11553</v>
+        <v>11738</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.3856208535522558</v>
+        <v>0.3856208535522557</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2119792234141898</v>
+        <v>0.2035844144750021</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.5831621039264245</v>
+        <v>0.5925119375984355</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>21</v>
@@ -11297,19 +11297,19 @@
         <v>18176</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>12462</v>
+        <v>12564</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>25682</v>
+        <v>25286</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3412078553076743</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2339326594611683</v>
+        <v>0.2358424702632712</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.4820962196534226</v>
+        <v>0.4746644923178859</v>
       </c>
     </row>
     <row r="37">
@@ -11326,19 +11326,19 @@
         <v>8009</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>3966</v>
+        <v>4172</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>13048</v>
+        <v>13155</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.2393495164309328</v>
+        <v>0.2393495164309329</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1185253046881641</v>
+        <v>0.1246768196250268</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3899488666762071</v>
+        <v>0.3931647165761299</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>5</v>
@@ -11347,19 +11347,19 @@
         <v>3164</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>1082</v>
+        <v>1095</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>7073</v>
+        <v>6887</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1597267903926432</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.05461073270361693</v>
+        <v>0.0552952015691397</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.357034959002037</v>
+        <v>0.347660034177624</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>15</v>
@@ -11368,19 +11368,19 @@
         <v>11173</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>6653</v>
+        <v>6369</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>16773</v>
+        <v>16707</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2097385346758474</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1248843059576274</v>
+        <v>0.1195496173507047</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3148701910301937</v>
+        <v>0.3136210772290265</v>
       </c>
     </row>
     <row r="38">
@@ -11397,19 +11397,19 @@
         <v>10342</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>5488</v>
+        <v>5476</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>15893</v>
+        <v>15831</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.3090913802520734</v>
+        <v>0.3090913802520736</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1640221067461443</v>
+        <v>0.1636560364287177</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.4749951268999131</v>
+        <v>0.4731269542752841</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>5</v>
@@ -11418,19 +11418,19 @@
         <v>2686</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>987</v>
+        <v>1001</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>5547</v>
+        <v>5771</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1355779581671594</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.04982497453659181</v>
+        <v>0.05053165307311788</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.2799981139978036</v>
+        <v>0.2912962150272589</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>16</v>
@@ -11439,19 +11439,19 @@
         <v>13028</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>7893</v>
+        <v>7684</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>19209</v>
+        <v>19031</v>
       </c>
       <c r="U38" s="6" t="n">
-        <v>0.244563285934528</v>
+        <v>0.2445632859345279</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1481701264474771</v>
+        <v>0.1442435926974372</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.3605965855159382</v>
+        <v>0.3572406823207401</v>
       </c>
     </row>
     <row r="39">
@@ -11543,19 +11543,19 @@
         <v>12760</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>6903</v>
+        <v>6502</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>23366</v>
+        <v>21763</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>0.1395934189746858</v>
+        <v>0.1395934189746857</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.07551508586017784</v>
+        <v>0.07112805560805723</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.2556232881313931</v>
+        <v>0.2380833334785349</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>22</v>
@@ -11564,19 +11564,19 @@
         <v>16361</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>10365</v>
+        <v>10530</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>23291</v>
+        <v>23440</v>
       </c>
       <c r="N40" s="6" t="n">
-        <v>0.1811267637019703</v>
+        <v>0.1811267637019704</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.1147529473842693</v>
+        <v>0.1165781032849803</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.2578543328280663</v>
+        <v>0.2594997751710913</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>32</v>
@@ -11585,19 +11585,19 @@
         <v>29121</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>20924</v>
+        <v>20549</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>41025</v>
+        <v>40201</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.1602364680366669</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.1151330288009115</v>
+        <v>0.1130723194218119</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.2257394440238382</v>
+        <v>0.2212059129175278</v>
       </c>
     </row>
     <row r="41">
@@ -11614,19 +11614,19 @@
         <v>6050</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>2205</v>
+        <v>2195</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>13384</v>
+        <v>13054</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>0.06618136709256434</v>
+        <v>0.06618136709256432</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.02412292267378489</v>
+        <v>0.02401078423090082</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1464172416698739</v>
+        <v>0.1428059357634246</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>5</v>
@@ -11635,19 +11635,19 @@
         <v>3877</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>1401</v>
+        <v>1414</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>8320</v>
+        <v>9050</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.04291893782791565</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.01550890148031148</v>
+        <v>0.01565048750069034</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.0921081582998793</v>
+        <v>0.1001868119007663</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>10</v>
@@ -11656,19 +11656,19 @@
         <v>9926</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>5132</v>
+        <v>4782</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>17561</v>
+        <v>17525</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.05461939268948803</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.02823955355503426</v>
+        <v>0.02631210203586728</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.09662878769018587</v>
+        <v>0.09643232347581421</v>
       </c>
     </row>
     <row r="42">
@@ -11685,19 +11685,19 @@
         <v>23108</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>14914</v>
+        <v>14751</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>33629</v>
+        <v>33774</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>0.2527996354209407</v>
+        <v>0.2527996354209406</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1631582555725096</v>
+        <v>0.1613753139778854</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.3678985348811079</v>
+        <v>0.3694866407511034</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>27</v>
@@ -11706,19 +11706,19 @@
         <v>20788</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>14582</v>
+        <v>14564</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>28543</v>
+        <v>28249</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2301392267189949</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1614386083754185</v>
+        <v>0.1612411946780856</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.3159955322945876</v>
+        <v>0.3127362477136653</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>46</v>
@@ -11727,19 +11727,19 @@
         <v>43896</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>32388</v>
+        <v>32658</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>57723</v>
+        <v>57613</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.2415368793951417</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1782163774993251</v>
+        <v>0.1797027393822843</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.3176174384949946</v>
+        <v>0.3170171497653191</v>
       </c>
     </row>
     <row r="43">
@@ -11756,19 +11756,19 @@
         <v>17279</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>10440</v>
+        <v>10401</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>27328</v>
+        <v>27837</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.189028442656227</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1142156700181754</v>
+        <v>0.1137885608486124</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.2989590766694855</v>
+        <v>0.3045309675556575</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>16</v>
@@ -11777,19 +11777,19 @@
         <v>14470</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>8485</v>
+        <v>8584</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>22868</v>
+        <v>22757</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.1601984170923507</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.09393515377971347</v>
+        <v>0.09502720705824078</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.2531735961480832</v>
+        <v>0.2519403878689888</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>29</v>
@@ -11798,19 +11798,19 @@
         <v>31749</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>22393</v>
+        <v>21645</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>44843</v>
+        <v>44051</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.1746992419602305</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.123219477138587</v>
+        <v>0.1191033738078066</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.2467483509202382</v>
+        <v>0.2423910755541958</v>
       </c>
     </row>
     <row r="44">
@@ -11827,19 +11827,19 @@
         <v>32212</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>22683</v>
+        <v>22871</v>
       </c>
       <c r="F44" s="5" t="n">
         <v>43675</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.3523971358555822</v>
+        <v>0.3523971358555821</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.248143949904551</v>
+        <v>0.2501996528581485</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.4777986558102533</v>
+        <v>0.4777935408515501</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>41</v>
@@ -11848,19 +11848,19 @@
         <v>34832</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>26235</v>
+        <v>26105</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>43677</v>
+        <v>44036</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.3856166546587686</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.2904426591123097</v>
+        <v>0.2890003688653298</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.4835410150900457</v>
+        <v>0.4875227649775258</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>67</v>
@@ -11869,19 +11869,19 @@
         <v>67044</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>54222</v>
+        <v>53563</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>81121</v>
+        <v>81103</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.3689080179184729</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.298354659646503</v>
+        <v>0.294731264545051</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.4463696704422644</v>
+        <v>0.4462670210420923</v>
       </c>
     </row>
     <row r="45">
@@ -11973,19 +11973,19 @@
         <v>25410</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>15582</v>
+        <v>16211</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>36434</v>
+        <v>36732</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.185614909130425</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.1138230873645052</v>
+        <v>0.1184185279196599</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.2661430740831753</v>
+        <v>0.2683206248566851</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>37</v>
@@ -11994,19 +11994,19 @@
         <v>31471</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>23555</v>
+        <v>23645</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>39962</v>
+        <v>40161</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.312091988971425</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.2335837601612075</v>
+        <v>0.2344817469408764</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.3962901933744227</v>
+        <v>0.3982597886395094</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>57</v>
@@ -12015,19 +12015,19 @@
         <v>56881</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>43896</v>
+        <v>44611</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>70916</v>
+        <v>72553</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.2392627663105709</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.1846438245869178</v>
+        <v>0.187651764033089</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.2982990052039769</v>
+        <v>0.3051858757596158</v>
       </c>
     </row>
     <row r="47">
@@ -12044,19 +12044,19 @@
         <v>25719</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>15400</v>
+        <v>16238</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>37428</v>
+        <v>37648</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.1878734946216025</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.1124972485162263</v>
+        <v>0.1186142130132437</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.2734041677369587</v>
+        <v>0.2750121576445899</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>21</v>
@@ -12065,19 +12065,19 @@
         <v>19184</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>12492</v>
+        <v>12729</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>27957</v>
+        <v>28379</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.1902413176577774</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.1238795233751907</v>
+        <v>0.1262287677014483</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.2772413155977545</v>
+        <v>0.2814301807957498</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>41</v>
@@ -12086,19 +12086,19 @@
         <v>44903</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>33048</v>
+        <v>33015</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>59067</v>
+        <v>58665</v>
       </c>
       <c r="U47" s="6" t="n">
-        <v>0.1888778555084309</v>
+        <v>0.1888778555084308</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.1390128897775453</v>
+        <v>0.138874483603202</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.2484590621560378</v>
+        <v>0.2467678627898785</v>
       </c>
     </row>
     <row r="48">
@@ -12115,19 +12115,19 @@
         <v>34989</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>25360</v>
+        <v>25118</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>48109</v>
+        <v>46973</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.2555876345494936</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.1852523257312423</v>
+        <v>0.183484580525839</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.3514289021891404</v>
+        <v>0.3431284822573837</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>34</v>
@@ -12136,19 +12136,19 @@
         <v>26824</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>19883</v>
+        <v>19707</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>34944</v>
+        <v>35154</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.2660015390528553</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.1971698480008474</v>
+        <v>0.195432345792971</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.3465255642189368</v>
+        <v>0.3486112897112397</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>62</v>
@@ -12157,19 +12157,19 @@
         <v>61812</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>48800</v>
+        <v>49071</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>75371</v>
+        <v>76814</v>
       </c>
       <c r="U48" s="6" t="n">
-        <v>0.2600049065341599</v>
+        <v>0.2600049065341598</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.205271223588452</v>
+        <v>0.2064087459282758</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.3170384584680912</v>
+        <v>0.3231069094024937</v>
       </c>
     </row>
     <row r="49">
@@ -12186,19 +12186,19 @@
         <v>31126</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>20753</v>
+        <v>21908</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>42105</v>
+        <v>43448</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.2273715585951509</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.1516014095962652</v>
+        <v>0.1600365330357921</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.3075726924173312</v>
+        <v>0.3173825853374426</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>19</v>
@@ -12207,19 +12207,19 @@
         <v>16141</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>9769</v>
+        <v>10547</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>23852</v>
+        <v>23833</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.1600693428281389</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.096880854461302</v>
+        <v>0.1045910504876186</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.2365364951807269</v>
+        <v>0.2363397471578434</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>44</v>
@@ -12228,19 +12228,19 @@
         <v>47267</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>35702</v>
+        <v>35458</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>62006</v>
+        <v>61848</v>
       </c>
       <c r="U49" s="6" t="n">
-        <v>0.1988239382364655</v>
+        <v>0.1988239382364654</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.1501749292327835</v>
+        <v>0.1491482759053313</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.2608188688566196</v>
+        <v>0.2601565867536496</v>
       </c>
     </row>
     <row r="50">
@@ -12257,19 +12257,19 @@
         <v>19652</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>11357</v>
+        <v>12023</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>29758</v>
+        <v>30067</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.1435524031033279</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.08295986545937918</v>
+        <v>0.08782745093608169</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.217375697383747</v>
+        <v>0.2196388570050652</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>9</v>
@@ -12278,19 +12278,19 @@
         <v>7220</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>3412</v>
+        <v>3272</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>13134</v>
+        <v>12533</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.07159581148980339</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.0338355013388294</v>
+        <v>0.03244890887778749</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.1302482840532219</v>
+        <v>0.1242889032446898</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>27</v>
@@ -12299,19 +12299,19 @@
         <v>26871</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>18498</v>
+        <v>18617</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>37865</v>
+        <v>38688</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.1130305334103731</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.0778086353120003</v>
+        <v>0.07830962057822727</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.1592753406176089</v>
+        <v>0.1627346098407431</v>
       </c>
     </row>
     <row r="51">
@@ -12403,19 +12403,19 @@
         <v>77780</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>61103</v>
+        <v>61778</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>101758</v>
+        <v>100924</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.1641415346642063</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.1289486092598574</v>
+        <v>0.1303733121545045</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.2147431801107555</v>
+        <v>0.2129827953681709</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>105</v>
@@ -12424,19 +12424,19 @@
         <v>87199</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>73429</v>
+        <v>71873</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>104243</v>
+        <v>103544</v>
       </c>
       <c r="N52" s="6" t="n">
-        <v>0.2265851133788639</v>
+        <v>0.2265851133788638</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.1908028320596464</v>
+        <v>0.1867610451938424</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.2708731201882874</v>
+        <v>0.2690561508986373</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>165</v>
@@ -12445,19 +12445,19 @@
         <v>164979</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>141215</v>
+        <v>141776</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>192100</v>
+        <v>191105</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.1921267499182605</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.1644515228595634</v>
+        <v>0.1651053388665961</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.223710070289195</v>
+        <v>0.222551791367147</v>
       </c>
     </row>
     <row r="53">
@@ -12474,19 +12474,19 @@
         <v>62290</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>47813</v>
+        <v>45501</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>81466</v>
+        <v>81224</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.1314538240896684</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.1009017105754045</v>
+        <v>0.0960216248055601</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.1719216198801986</v>
+        <v>0.1714105474761637</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>61</v>
@@ -12495,19 +12495,19 @@
         <v>51071</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>39182</v>
+        <v>40963</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>63990</v>
+        <v>64494</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.1327073906737373</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.1018132245941079</v>
+        <v>0.1064406127725636</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.1662755289703565</v>
+        <v>0.167585664211063</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>109</v>
@@ -12516,19 +12516,19 @@
         <v>113362</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>93754</v>
+        <v>94106</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>135841</v>
+        <v>137273</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.1320156325480011</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.1091808431843485</v>
+        <v>0.109591176868137</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.158193676261848</v>
+        <v>0.1598613412089516</v>
       </c>
     </row>
     <row r="54">
@@ -12545,19 +12545,19 @@
         <v>133789</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>111900</v>
+        <v>113783</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>156680</v>
+        <v>157850</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.28233992407334</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.2361456521450453</v>
+        <v>0.240119635130645</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.3306483042769138</v>
+        <v>0.3331170943800891</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>140</v>
@@ -12566,19 +12566,19 @@
         <v>100247</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>85680</v>
+        <v>86243</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>114964</v>
+        <v>115369</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.260488836717339</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.2226370775015964</v>
+        <v>0.2240992408734536</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.2987299222137261</v>
+        <v>0.2997826796160937</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>252</v>
@@ -12587,19 +12587,19 @@
         <v>234036</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>209227</v>
+        <v>208169</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>261931</v>
+        <v>266417</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.2725469654412415</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.2436546699228113</v>
+        <v>0.2424225956239097</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.3050312715276092</v>
+        <v>0.3102559024785856</v>
       </c>
     </row>
     <row r="55">
@@ -12616,19 +12616,19 @@
         <v>83369</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>65852</v>
+        <v>62960</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>100994</v>
+        <v>100291</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.1759367113434804</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.1389694525210245</v>
+        <v>0.1328667852212798</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.2131303325125473</v>
+        <v>0.2116474678814908</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>91</v>
@@ -12637,19 +12637,19 @@
         <v>68628</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>57676</v>
+        <v>56096</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>85541</v>
+        <v>82715</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.1783271496464926</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.1498693707816343</v>
+        <v>0.1457645269770713</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.2222751438645612</v>
+        <v>0.2149330045153414</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>167</v>
@@ -12658,19 +12658,19 @@
         <v>151997</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>130235</v>
+        <v>129577</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>173627</v>
+        <v>176555</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.1770080293530875</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.1516655736068612</v>
+        <v>0.15089902350728</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.2021976665243776</v>
+        <v>0.2056065352788378</v>
       </c>
     </row>
     <row r="56">
@@ -12687,19 +12687,19 @@
         <v>116630</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>92201</v>
+        <v>94157</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>138647</v>
+        <v>140149</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.246128005829305</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.1945744529856771</v>
+        <v>0.1987024142462878</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.2925920327003452</v>
+        <v>0.2957611273056411</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>96</v>
@@ -12708,19 +12708,19 @@
         <v>77696</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>65009</v>
+        <v>63632</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>94421</v>
+        <v>94599</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.2018915095835673</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.1689245942782702</v>
+        <v>0.1653466220684101</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.2453508410620739</v>
+        <v>0.2458115121113076</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>188</v>
@@ -12729,19 +12729,19 @@
         <v>194326</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>169295</v>
+        <v>169268</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>223041</v>
+        <v>222810</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.2263026227394095</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.1971521142664813</v>
+        <v>0.1971206787217566</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.2597421031718656</v>
+        <v>0.2594738742371416</v>
       </c>
     </row>
     <row r="57">
